--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/13_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/13_11R22.xlsx
@@ -692,16 +692,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1028497323114776</v>
+        <v>0.1006402440482612</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.2899831394617873</v>
+        <v>0.2776305698212251</v>
       </c>
       <c r="H2">
-        <v>0.04582032006652317</v>
+        <v>0.04670196330201438</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -713,67 +713,67 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.0003589694371546986</v>
       </c>
       <c r="M2">
-        <v>0.03856185757990877</v>
+        <v>0.03983692696414212</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.09153567550250181</v>
+        <v>0.08993943636817661</v>
       </c>
       <c r="P2">
-        <v>0.07084317855912853</v>
+        <v>0.07036852259690116</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.006782412789385388</v>
+        <v>0.009780004621886013</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0.0457373741663103</v>
+        <v>0.04662351326936778</v>
       </c>
       <c r="U2">
-        <v>0.07853559718842361</v>
+        <v>0.07764399360933978</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0.07478077107848925</v>
+        <v>0.07409268811804225</v>
       </c>
       <c r="X2">
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.02882496318315035</v>
+        <v>0.0306277956949455</v>
       </c>
       <c r="Z2">
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.01992933491058367</v>
+        <v>0.02221433189982451</v>
       </c>
       <c r="AB2">
-        <v>0.00249615552674859</v>
+        <v>0.005726072826311566</v>
       </c>
       <c r="AC2">
-        <v>0.05072128840337383</v>
+        <v>0.05133728735105199</v>
       </c>
       <c r="AD2">
-        <v>0.04518933423329349</v>
+        <v>0.0461051784206717</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.007408865038914417</v>
+        <v>0.01037250165068371</v>
       </c>
       <c r="AG2">
         <v>0</v>
@@ -802,19 +802,19 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1914217205644837</v>
+        <v>0.1718283695370694</v>
       </c>
       <c r="F3">
-        <v>0.002427902376293927</v>
+        <v>0.009604362788291689</v>
       </c>
       <c r="G3">
-        <v>0.2626146764594594</v>
+        <v>0.23293728129032</v>
       </c>
       <c r="H3">
-        <v>0.006686300857798767</v>
+        <v>0.01325958532744771</v>
       </c>
       <c r="I3">
-        <v>0.01611991161788537</v>
+        <v>0.02135698316977176</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -826,67 +826,67 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.0396776906362315</v>
+        <v>0.04157794774467134</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.08793902309320614</v>
+        <v>0.08300335941823953</v>
       </c>
       <c r="P3">
-        <v>0.04726384887278078</v>
+        <v>0.04808957334576822</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.005109161913798133</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.08534149894398117</v>
+        <v>0.08077375858180159</v>
       </c>
       <c r="U3">
-        <v>0.07288602560876692</v>
+        <v>0.0700825264041489</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.006160744948821714</v>
       </c>
       <c r="W3">
-        <v>0.04665599760311111</v>
+        <v>0.0475678204682484</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>8.928490838507455E-05</v>
       </c>
       <c r="Y3">
-        <v>0.02822640700530561</v>
+        <v>0.03174866797862248</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.02666515357280841</v>
+        <v>0.03040855648821498</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>0.001295678502372807</v>
       </c>
       <c r="AC3">
-        <v>0.05399061793869878</v>
+        <v>0.05386353696430494</v>
       </c>
       <c r="AD3">
-        <v>0.01751375251508335</v>
+        <v>0.02255339508039105</v>
       </c>
       <c r="AE3">
-        <v>0.00572213621942104</v>
+        <v>0.01243198867744841</v>
       </c>
       <c r="AF3">
-        <v>0.008847336114683968</v>
+        <v>0.01511452323736501</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>0.0004053466553059067</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>0.0007375465691909746</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -909,16 +909,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.06052307367567631</v>
+        <v>0.0557310512538331</v>
       </c>
       <c r="E4">
-        <v>0.02721742557947697</v>
+        <v>0.03051444075148829</v>
       </c>
       <c r="F4">
-        <v>0.1863023671917125</v>
+        <v>0.1509619695861483</v>
       </c>
       <c r="G4">
-        <v>0.1700287106242822</v>
+        <v>0.1386407423299026</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -930,79 +930,79 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.005958094079677929</v>
+        <v>0.01441842363084149</v>
       </c>
       <c r="L4">
-        <v>0.0163082086835164</v>
+        <v>0.0222547764279939</v>
       </c>
       <c r="M4">
-        <v>0.05151907321183574</v>
+        <v>0.04891387802232017</v>
       </c>
       <c r="N4">
-        <v>0.03545754336959069</v>
+        <v>0.03675325766946478</v>
       </c>
       <c r="O4">
-        <v>0.09737837841635802</v>
+        <v>0.0836352031834587</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.007642079429365582</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.003866972345536128</v>
       </c>
       <c r="R4">
-        <v>0.0005239010445985476</v>
+        <v>0.01030404853252929</v>
       </c>
       <c r="S4">
-        <v>0.01767579042511975</v>
+        <v>0.02329020969770606</v>
       </c>
       <c r="T4">
-        <v>0.1340021278412256</v>
+        <v>0.1113640382961958</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.00627466333599622</v>
       </c>
       <c r="V4">
-        <v>0.04644509455487873</v>
+        <v>0.04507223101037397</v>
       </c>
       <c r="W4">
-        <v>0.0003577089984403078</v>
+        <v>0.01017822002186782</v>
       </c>
       <c r="X4">
-        <v>0.01161560098858396</v>
+        <v>0.01870187572653838</v>
       </c>
       <c r="Y4">
-        <v>0.0003526104167015775</v>
+        <v>0.01017435974719463</v>
       </c>
       <c r="Z4">
-        <v>0.01090419280003082</v>
+        <v>0.01816324927053585</v>
       </c>
       <c r="AA4">
-        <v>0.03589239883360156</v>
+        <v>0.03708249854864257</v>
       </c>
       <c r="AB4">
-        <v>0.003516560828665226</v>
+        <v>0.0125698725129806</v>
       </c>
       <c r="AC4">
-        <v>0.0642149002023556</v>
+        <v>0.05852623335918054</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>5.903911748252587E-05</v>
       </c>
       <c r="AE4">
-        <v>0.02380623823367147</v>
+        <v>0.02793173819001132</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>0.007728910385219613</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>0.002490717691921448</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.002521642674816164</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>0.004233657250454174</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -1019,100 +1019,100 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1642968845482626</v>
+        <v>0.136702420613279</v>
       </c>
       <c r="E5">
-        <v>0.06820796405707408</v>
+        <v>0.06245821018758637</v>
       </c>
       <c r="F5">
-        <v>0.1960103507283448</v>
+        <v>0.1612061952874677</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.005394815069522233</v>
+        <v>0.0139249076268626</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.006159752060624517</v>
+        <v>0.01451594499765919</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.04028652606002871</v>
+        <v>0.04088438973624033</v>
       </c>
       <c r="M5">
-        <v>0.003114720649911007</v>
+        <v>0.01216316642907709</v>
       </c>
       <c r="N5">
-        <v>0.1177454085306885</v>
+        <v>0.1007338868488448</v>
       </c>
       <c r="O5">
-        <v>0.0193599637896454</v>
+        <v>0.02471524052791747</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.003008309911184384</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.009215415561026695</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.00865632632740531</v>
       </c>
       <c r="S5">
-        <v>0.1259141533086707</v>
+        <v>0.107045561525905</v>
       </c>
       <c r="T5">
-        <v>0.04595593440275315</v>
+        <v>0.04526492334859379</v>
       </c>
       <c r="U5">
-        <v>0.01038960027782345</v>
+        <v>0.01778418590931827</v>
       </c>
       <c r="V5">
-        <v>0.01401165134345765</v>
+        <v>0.02058280535591939</v>
       </c>
       <c r="W5">
-        <v>0.01258446123855696</v>
+        <v>0.01948007049404289</v>
       </c>
       <c r="X5">
-        <v>0.04358873339655527</v>
+        <v>0.0434358782440629</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>1.718084866405645E-05</v>
       </c>
       <c r="Z5">
-        <v>0.02498274067953734</v>
+        <v>0.02905974381149989</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>0.001322525662888474</v>
       </c>
       <c r="AB5">
-        <v>0.09337447795779091</v>
+        <v>0.08190340682601964</v>
       </c>
       <c r="AC5">
-        <v>0.003693238397124065</v>
+        <v>0.01261016482534924</v>
       </c>
       <c r="AD5">
-        <v>0.004928623503628911</v>
+        <v>0.01356469934749036</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>0.008825753905091839</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>0.003613131725068674</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>0.0009710154918821906</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>0.002930414633249291</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>0.003404123990403366</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2757231733162987</v>
+        <v>0.2412287780588498</v>
       </c>
       <c r="E6">
-        <v>0.001237893609258558</v>
+        <v>0.008608219339539241</v>
       </c>
       <c r="F6">
-        <v>0.232910564523255</v>
+        <v>0.2049459836288589</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.006662830677088391</v>
       </c>
       <c r="H6">
-        <v>0.02771767489035396</v>
+        <v>0.03104928256503493</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1153,76 +1153,76 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.02706370588341871</v>
+        <v>0.03049505744979102</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.07236847850973403</v>
+        <v>0.0688899088321054</v>
       </c>
       <c r="O6">
-        <v>0.0343221233065886</v>
+        <v>0.03664641506794038</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.00122099526117655</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.001243007690075308</v>
       </c>
       <c r="S6">
-        <v>0.1186129734643643</v>
+        <v>0.1080811553190568</v>
       </c>
       <c r="T6">
-        <v>0.07406043999841275</v>
+        <v>0.07032381096065697</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>0.004015818967186897</v>
       </c>
       <c r="V6">
-        <v>0.01291234641792868</v>
+        <v>0.01850207498816845</v>
       </c>
       <c r="W6">
-        <v>0.00574549757206565</v>
+        <v>0.01242831983247897</v>
       </c>
       <c r="X6">
-        <v>0.02837988836703474</v>
+        <v>0.03161049469670681</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.004847882891491517</v>
+        <v>0.01166761008246008</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.06048024758204718</v>
+        <v>0.05881488067928684</v>
       </c>
       <c r="AC6">
-        <v>0.01302700932536793</v>
+        <v>0.01859924941450333</v>
       </c>
       <c r="AD6">
-        <v>0.003404643314252138</v>
+        <v>0.01044449459451271</v>
       </c>
       <c r="AE6">
-        <v>0.007185457028127709</v>
+        <v>0.01364865548603322</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>0.00203553797648248</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>0.001096732504865538</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>0.003160874328458887</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>0.004579811598682034</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -1239,91 +1239,91 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1147358555423159</v>
+        <v>0.105961924526619</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.2890879681917233</v>
+        <v>0.2580218903175897</v>
       </c>
       <c r="G7">
-        <v>0.1018727374063134</v>
+        <v>0.09474344673473314</v>
       </c>
       <c r="H7">
-        <v>0.0383088535275531</v>
+        <v>0.0393066535621648</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0008610968417447979</v>
+        <v>0.006646856591176061</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.003534384202512807</v>
+        <v>0.008978345315062194</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.0944243173704616</v>
+        <v>0.08824735971497966</v>
       </c>
       <c r="O7">
-        <v>0.02134090034166391</v>
+        <v>0.02450817282234527</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.008855247589577453</v>
+        <v>0.01361889880375104</v>
       </c>
       <c r="R7">
-        <v>0.006106960796784387</v>
+        <v>0.01122199985400201</v>
       </c>
       <c r="S7">
-        <v>0.0273329356840144</v>
+        <v>0.02973408419979022</v>
       </c>
       <c r="T7">
-        <v>0.08680273776800231</v>
+        <v>0.08160025280005774</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
       <c r="V7">
-        <v>0.02248056649785088</v>
+        <v>0.02550212462533483</v>
       </c>
       <c r="W7">
-        <v>0.005931210399178365</v>
+        <v>0.01106872038384462</v>
       </c>
       <c r="X7">
-        <v>0.002174595296219005</v>
+        <v>0.007792415007525539</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>0.004044052336713435</v>
       </c>
       <c r="Z7">
-        <v>0.01793895231481034</v>
+        <v>0.0215411878358988</v>
       </c>
       <c r="AA7">
-        <v>0.04220534677204352</v>
+        <v>0.04270495267342009</v>
       </c>
       <c r="AB7">
-        <v>0.01375734907317882</v>
+        <v>0.0178942320507831</v>
       </c>
       <c r="AC7">
-        <v>0.08250061164105914</v>
+        <v>0.07784818383025485</v>
       </c>
       <c r="AD7">
         <v>0</v>
       </c>
       <c r="AE7">
-        <v>0.01870416198855907</v>
+        <v>0.0222085600578066</v>
       </c>
       <c r="AF7">
-        <v>0.0010432107544334</v>
+        <v>0.006805685956147239</v>
       </c>
       <c r="AG7">
         <v>0</v>
@@ -1349,22 +1349,22 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.04352848570419507</v>
+        <v>0.04355170761397371</v>
       </c>
       <c r="E8">
-        <v>0.02508859428295257</v>
+        <v>0.02605783415291572</v>
       </c>
       <c r="F8">
-        <v>0.1913523864582797</v>
+        <v>0.1837918291654977</v>
       </c>
       <c r="G8">
-        <v>0.1378140143951233</v>
+        <v>0.1330001252021566</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.001772903619307663</v>
       </c>
       <c r="I8">
-        <v>0.01019331021977434</v>
+        <v>0.01192671978704839</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1376,64 +1376,64 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.0003069802161363099</v>
+        <v>0.002547586139945211</v>
       </c>
       <c r="N8">
-        <v>0.08862627940807126</v>
+        <v>0.08633585847506098</v>
       </c>
       <c r="O8">
-        <v>0.07856248492688202</v>
+        <v>0.07678836477402945</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.003611490599200369</v>
+        <v>0.005682565905904143</v>
       </c>
       <c r="R8">
-        <v>0.03087431696785303</v>
+        <v>0.03154673309587932</v>
       </c>
       <c r="S8">
-        <v>0.008039902167008442</v>
+        <v>0.009883787585087971</v>
       </c>
       <c r="T8">
-        <v>0.1199907024537226</v>
+        <v>0.1160911989705933</v>
       </c>
       <c r="U8">
-        <v>0.02921645044027955</v>
+        <v>0.02997391975407821</v>
       </c>
       <c r="V8">
-        <v>0.001984705992927009</v>
+        <v>0.004139239895982029</v>
       </c>
       <c r="W8">
-        <v>0.01918366078753893</v>
+        <v>0.02045584024715288</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>0.002146438678783215</v>
       </c>
       <c r="Y8">
-        <v>0.02421663711027839</v>
+        <v>0.02523061081988397</v>
       </c>
       <c r="Z8">
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>0.0498994128205804</v>
+        <v>0.04959578836573328</v>
       </c>
       <c r="AB8">
         <v>0</v>
       </c>
       <c r="AC8">
-        <v>0.1251542139606448</v>
+        <v>0.120989807907778</v>
       </c>
       <c r="AD8">
-        <v>0.001400527506141309</v>
+        <v>0.00358503139805516</v>
       </c>
       <c r="AE8">
-        <v>0.007137817804845057</v>
+        <v>0.009027982671578229</v>
       </c>
       <c r="AF8">
-        <v>0.003817625777565736</v>
+        <v>0.005878125773574631</v>
       </c>
       <c r="AG8">
         <v>0</v>
@@ -1459,19 +1459,19 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2441759852352025</v>
+        <v>0.2061285287300041</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.001961600496595513</v>
       </c>
       <c r="F9">
-        <v>0.1807674180450609</v>
+        <v>0.1551267033649951</v>
       </c>
       <c r="G9">
-        <v>0.008754065979231597</v>
+        <v>0.01677008483103744</v>
       </c>
       <c r="H9">
-        <v>0.04999990753654882</v>
+        <v>0.04994562090380621</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1483,76 +1483,76 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.007703420121798552</v>
+        <v>0.0159250120133441</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.002570481006978993</v>
       </c>
       <c r="N9">
-        <v>0.1023461616127296</v>
+        <v>0.09204962399379939</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.006878824833312849</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.006737709267620128</v>
+        <v>0.01514825551938</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>0.0003369512001588782</v>
       </c>
       <c r="S9">
-        <v>0.08555073862536576</v>
+        <v>0.0785404521564303</v>
       </c>
       <c r="T9">
-        <v>0.114920511711419</v>
+        <v>0.1021636328135973</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>0.002554038752437428</v>
       </c>
       <c r="V9">
-        <v>0.002654357611016477</v>
+        <v>0.01186386671637297</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>0.03836728265926288</v>
+        <v>0.04058907605791925</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>0.005334842644856494</v>
       </c>
       <c r="Z9">
-        <v>0.01440645809306826</v>
+        <v>0.0213165101527134</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>0.007943416935289679</v>
       </c>
       <c r="AB9">
-        <v>0.06434340891457595</v>
+        <v>0.06148262268167706</v>
       </c>
       <c r="AC9">
-        <v>0.05754381551244878</v>
+        <v>0.05601346148444573</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>0.0007316443687299448</v>
       </c>
       <c r="AE9">
-        <v>0.01627342665570563</v>
+        <v>0.02281818112263239</v>
       </c>
       <c r="AF9">
-        <v>0.001213964812909834</v>
+        <v>0.01070530620631191</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>0.001766566328522355</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>0.0001943378943776349</v>
       </c>
       <c r="AI9">
-        <v>0.004241367606035096</v>
+        <v>0.01314035679027339</v>
       </c>
       <c r="AJ9">
         <v>0</v>
@@ -1569,22 +1569,22 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01329749744676093</v>
+        <v>0.01688223507980403</v>
       </c>
       <c r="E10">
-        <v>0.130079371551365</v>
+        <v>0.1230211155516824</v>
       </c>
       <c r="F10">
-        <v>0.06148416133170242</v>
+        <v>0.06067737535851916</v>
       </c>
       <c r="G10">
-        <v>0.2047805839223069</v>
+        <v>0.1909143833360468</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.02971861845131646</v>
+        <v>0.03180680631896398</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1596,13 +1596,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.008201957908758408</v>
+        <v>0.01225108092073186</v>
       </c>
       <c r="N10">
-        <v>0.02248231239593775</v>
+        <v>0.02522998582041804</v>
       </c>
       <c r="O10">
-        <v>0.07660446102693688</v>
+        <v>0.07441967650205081</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1611,52 +1611,52 @@
         <v>0</v>
       </c>
       <c r="R10">
-        <v>0.01515599587039991</v>
+        <v>0.01857135801567251</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0.113005842436522</v>
+        <v>0.1075035938485262</v>
       </c>
       <c r="U10">
-        <v>0.08279746839475327</v>
+        <v>0.08004828003161353</v>
       </c>
       <c r="V10">
         <v>0</v>
       </c>
       <c r="W10">
-        <v>0.01936361095338338</v>
+        <v>0.0223955093044627</v>
       </c>
       <c r="X10">
         <v>0</v>
       </c>
       <c r="Y10">
-        <v>0.03506896963447015</v>
+        <v>0.03666954969472672</v>
       </c>
       <c r="Z10">
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>0.04961805950390479</v>
+        <v>0.04989269859918209</v>
       </c>
       <c r="AB10">
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>0.09629358471586995</v>
+        <v>0.09231441883118856</v>
       </c>
       <c r="AD10">
-        <v>0.02087279248265268</v>
+        <v>0.02376715057305548</v>
       </c>
       <c r="AE10">
-        <v>0.0002860553687730255</v>
+        <v>0.005056599414415434</v>
       </c>
       <c r="AF10">
-        <v>0.01844107266841511</v>
+        <v>0.02155704715860544</v>
       </c>
       <c r="AG10">
-        <v>0.002447583935771192</v>
+        <v>0.007021135640334111</v>
       </c>
       <c r="AH10">
         <v>0</v>
@@ -1679,40 +1679,40 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03414007582098132</v>
+        <v>0.03008273830937664</v>
       </c>
       <c r="E11">
-        <v>0.04802253363539571</v>
+        <v>0.04615511522132973</v>
       </c>
       <c r="F11">
-        <v>0.123181005862536</v>
+        <v>0.1331696273422954</v>
       </c>
       <c r="G11">
-        <v>0.1340102865453209</v>
+        <v>0.1457071969244143</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.008089797191441031</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06150120095885228</v>
+        <v>0.06176000481577062</v>
       </c>
       <c r="K11">
-        <v>0.01019670064352175</v>
+        <v>0.002362362311053106</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.002762372088407552</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.008156218684617019</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.1741950225625322</v>
+        <v>0.1922309632495204</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1721,40 +1721,40 @@
         <v>0</v>
       </c>
       <c r="R11">
-        <v>0.04355091380687617</v>
+        <v>0.04097810980545115</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>0.2029415946035329</v>
+        <v>0.2255122270535311</v>
       </c>
       <c r="U11">
-        <v>0.01192797028623909</v>
+        <v>0.004366734923306504</v>
       </c>
       <c r="V11">
-        <v>0.01761676745281411</v>
+        <v>0.01095292401598349</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>0.01164048424690507</v>
+        <v>0.004033898761088654</v>
       </c>
       <c r="Y11">
-        <v>0.004325361471880089</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>0.000950476741329841</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>0.005938523625821875</v>
+        <v>0</v>
       </c>
       <c r="AB11">
         <v>0</v>
       </c>
       <c r="AC11">
-        <v>0.09685269377099512</v>
+        <v>0.1026880972668787</v>
       </c>
       <c r="AD11">
         <v>0</v>
@@ -1915,85 +1915,85 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1028497323114776</v>
+        <v>0.1006402440482612</v>
       </c>
       <c r="F2">
-        <v>0.1028497323114776</v>
+        <v>0.1006402440482612</v>
       </c>
       <c r="G2">
-        <v>0.3928328717732649</v>
+        <v>0.3782708138694864</v>
       </c>
       <c r="H2">
-        <v>0.438653191839788</v>
+        <v>0.4249727771715007</v>
       </c>
       <c r="I2">
-        <v>0.438653191839788</v>
+        <v>0.4249727771715007</v>
       </c>
       <c r="J2">
-        <v>0.438653191839788</v>
+        <v>0.4249727771715007</v>
       </c>
       <c r="K2">
-        <v>0.438653191839788</v>
+        <v>0.4249727771715007</v>
       </c>
       <c r="L2">
-        <v>0.438653191839788</v>
+        <v>0.4253317466086554</v>
       </c>
       <c r="M2">
-        <v>0.4772150494196968</v>
+        <v>0.4651686735727975</v>
       </c>
       <c r="N2">
-        <v>0.4772150494196968</v>
+        <v>0.4651686735727975</v>
       </c>
       <c r="O2">
-        <v>0.5687507249221986</v>
+        <v>0.5551081099409741</v>
       </c>
       <c r="P2">
-        <v>0.6395939034813272</v>
+        <v>0.6254766325378753</v>
       </c>
       <c r="Q2">
-        <v>0.6395939034813272</v>
+        <v>0.6254766325378753</v>
       </c>
       <c r="R2">
-        <v>0.6463763162707126</v>
+        <v>0.6352566371597613</v>
       </c>
       <c r="S2">
-        <v>0.6463763162707126</v>
+        <v>0.6352566371597613</v>
       </c>
       <c r="T2">
-        <v>0.6921136904370229</v>
+        <v>0.6818801504291291</v>
       </c>
       <c r="U2">
-        <v>0.7706492876254465</v>
+        <v>0.7595241440384689</v>
       </c>
       <c r="V2">
-        <v>0.7706492876254465</v>
+        <v>0.7595241440384689</v>
       </c>
       <c r="W2">
-        <v>0.8454300587039357</v>
+        <v>0.8336168321565112</v>
       </c>
       <c r="X2">
-        <v>0.8454300587039357</v>
+        <v>0.8336168321565112</v>
       </c>
       <c r="Y2">
-        <v>0.874255021887086</v>
+        <v>0.8642446278514566</v>
       </c>
       <c r="Z2">
-        <v>0.874255021887086</v>
+        <v>0.8642446278514566</v>
       </c>
       <c r="AA2">
-        <v>0.8941843567976697</v>
+        <v>0.8864589597512811</v>
       </c>
       <c r="AB2">
-        <v>0.8966805123244184</v>
+        <v>0.8921850325775926</v>
       </c>
       <c r="AC2">
-        <v>0.9474018007277922</v>
+        <v>0.9435223199286447</v>
       </c>
       <c r="AD2">
-        <v>0.9925911349610858</v>
+        <v>0.9896274983493164</v>
       </c>
       <c r="AE2">
-        <v>0.9925911349610858</v>
+        <v>0.9896274983493164</v>
       </c>
       <c r="AF2">
         <v>1</v>
@@ -2025,97 +2025,97 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1914217205644837</v>
+        <v>0.1718283695370694</v>
       </c>
       <c r="F3">
-        <v>0.1938496229407776</v>
+        <v>0.1814327323253611</v>
       </c>
       <c r="G3">
-        <v>0.456464299400237</v>
+        <v>0.4143700136156812</v>
       </c>
       <c r="H3">
-        <v>0.4631506002580358</v>
+        <v>0.4276295989431289</v>
       </c>
       <c r="I3">
-        <v>0.4792705118759212</v>
+        <v>0.4489865821129006</v>
       </c>
       <c r="J3">
-        <v>0.4792705118759212</v>
+        <v>0.4489865821129006</v>
       </c>
       <c r="K3">
-        <v>0.4792705118759212</v>
+        <v>0.4489865821129006</v>
       </c>
       <c r="L3">
-        <v>0.4792705118759212</v>
+        <v>0.4489865821129006</v>
       </c>
       <c r="M3">
-        <v>0.5189482025121527</v>
+        <v>0.4905645298575719</v>
       </c>
       <c r="N3">
-        <v>0.5189482025121527</v>
+        <v>0.4905645298575719</v>
       </c>
       <c r="O3">
-        <v>0.6068872256053588</v>
+        <v>0.5735678892758115</v>
       </c>
       <c r="P3">
-        <v>0.6541510744781396</v>
+        <v>0.6216574626215797</v>
       </c>
       <c r="Q3">
-        <v>0.6541510744781396</v>
+        <v>0.6216574626215797</v>
       </c>
       <c r="R3">
-        <v>0.6541510744781396</v>
+        <v>0.6267666245353779</v>
       </c>
       <c r="S3">
-        <v>0.6541510744781396</v>
+        <v>0.6267666245353779</v>
       </c>
       <c r="T3">
-        <v>0.7394925734221207</v>
+        <v>0.7075403831171795</v>
       </c>
       <c r="U3">
-        <v>0.8123785990308876</v>
+        <v>0.7776229095213284</v>
       </c>
       <c r="V3">
-        <v>0.8123785990308876</v>
+        <v>0.7837836544701501</v>
       </c>
       <c r="W3">
-        <v>0.8590345966339987</v>
+        <v>0.8313514749383984</v>
       </c>
       <c r="X3">
-        <v>0.8590345966339987</v>
+        <v>0.8314407598467836</v>
       </c>
       <c r="Y3">
-        <v>0.8872610036393044</v>
+        <v>0.8631894278254061</v>
       </c>
       <c r="Z3">
-        <v>0.8872610036393044</v>
+        <v>0.8631894278254061</v>
       </c>
       <c r="AA3">
-        <v>0.9139261572121128</v>
+        <v>0.893597984313621</v>
       </c>
       <c r="AB3">
-        <v>0.9139261572121128</v>
+        <v>0.8948936628159938</v>
       </c>
       <c r="AC3">
-        <v>0.9679167751508115</v>
+        <v>0.9487571997802987</v>
       </c>
       <c r="AD3">
-        <v>0.9854305276658949</v>
+        <v>0.9713105948606897</v>
       </c>
       <c r="AE3">
-        <v>0.991152663885316</v>
+        <v>0.9837425835381381</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>0.9988571067755032</v>
       </c>
       <c r="AG3">
-        <v>1</v>
+        <v>0.9992624534308091</v>
       </c>
       <c r="AH3">
-        <v>1</v>
+        <v>0.9992624534308091</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0.9992624534308091</v>
       </c>
       <c r="AJ3">
         <v>1</v>
@@ -2132,103 +2132,103 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.06052307367567631</v>
+        <v>0.0557310512538331</v>
       </c>
       <c r="E4">
-        <v>0.08774049925515327</v>
+        <v>0.08624549200532139</v>
       </c>
       <c r="F4">
-        <v>0.2740428664468658</v>
+        <v>0.2372074615914697</v>
       </c>
       <c r="G4">
-        <v>0.444071577071148</v>
+        <v>0.3758482039213723</v>
       </c>
       <c r="H4">
-        <v>0.444071577071148</v>
+        <v>0.3758482039213723</v>
       </c>
       <c r="I4">
-        <v>0.444071577071148</v>
+        <v>0.3758482039213723</v>
       </c>
       <c r="J4">
-        <v>0.444071577071148</v>
+        <v>0.3758482039213723</v>
       </c>
       <c r="K4">
-        <v>0.4500296711508259</v>
+        <v>0.3902666275522138</v>
       </c>
       <c r="L4">
-        <v>0.4663378798343423</v>
+        <v>0.4125214039802077</v>
       </c>
       <c r="M4">
-        <v>0.5178569530461781</v>
+        <v>0.4614352820025279</v>
       </c>
       <c r="N4">
-        <v>0.5533144964157688</v>
+        <v>0.4981885396719927</v>
       </c>
       <c r="O4">
-        <v>0.6506928748321268</v>
+        <v>0.5818237428554514</v>
       </c>
       <c r="P4">
-        <v>0.6506928748321268</v>
+        <v>0.5894658222848169</v>
       </c>
       <c r="Q4">
-        <v>0.6506928748321268</v>
+        <v>0.593332794630353</v>
       </c>
       <c r="R4">
-        <v>0.6512167758767253</v>
+        <v>0.6036368431628824</v>
       </c>
       <c r="S4">
-        <v>0.6688925663018451</v>
+        <v>0.6269270528605884</v>
       </c>
       <c r="T4">
-        <v>0.8028946941430707</v>
+        <v>0.7382910911567842</v>
       </c>
       <c r="U4">
-        <v>0.8028946941430707</v>
+        <v>0.7445657544927804</v>
       </c>
       <c r="V4">
-        <v>0.8493397886979495</v>
+        <v>0.7896379855031543</v>
       </c>
       <c r="W4">
-        <v>0.8496974976963898</v>
+        <v>0.7998162055250222</v>
       </c>
       <c r="X4">
-        <v>0.8613130986849737</v>
+        <v>0.8185180812515606</v>
       </c>
       <c r="Y4">
-        <v>0.8616657091016753</v>
+        <v>0.8286924409987552</v>
       </c>
       <c r="Z4">
-        <v>0.8725699019017061</v>
+        <v>0.846855690269291</v>
       </c>
       <c r="AA4">
-        <v>0.9084623007353076</v>
+        <v>0.8839381888179335</v>
       </c>
       <c r="AB4">
-        <v>0.9119788615639729</v>
+        <v>0.8965080613309141</v>
       </c>
       <c r="AC4">
-        <v>0.9761937617663285</v>
+        <v>0.9550342946900946</v>
       </c>
       <c r="AD4">
-        <v>0.9761937617663285</v>
+        <v>0.9550933338075771</v>
       </c>
       <c r="AE4">
-        <v>1</v>
+        <v>0.9830250719975884</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0.990753982382808</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>0.9932447000747294</v>
       </c>
       <c r="AH4">
-        <v>1</v>
+        <v>0.9957663427495456</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -2242,97 +2242,97 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1642968845482626</v>
+        <v>0.136702420613279</v>
       </c>
       <c r="E5">
-        <v>0.2325048486053366</v>
+        <v>0.1991606308008654</v>
       </c>
       <c r="F5">
-        <v>0.4285151993336814</v>
+        <v>0.360366826088333</v>
       </c>
       <c r="G5">
-        <v>0.4285151993336814</v>
+        <v>0.360366826088333</v>
       </c>
       <c r="H5">
-        <v>0.4339100144032036</v>
+        <v>0.3742917337151956</v>
       </c>
       <c r="I5">
-        <v>0.4339100144032036</v>
+        <v>0.3742917337151956</v>
       </c>
       <c r="J5">
-        <v>0.4400697664638282</v>
+        <v>0.3888076787128548</v>
       </c>
       <c r="K5">
-        <v>0.4400697664638282</v>
+        <v>0.3888076787128548</v>
       </c>
       <c r="L5">
-        <v>0.4803562925238569</v>
+        <v>0.4296920684490951</v>
       </c>
       <c r="M5">
-        <v>0.4834710131737679</v>
+        <v>0.4418552348781722</v>
       </c>
       <c r="N5">
-        <v>0.6012164217044564</v>
+        <v>0.542589121727017</v>
       </c>
       <c r="O5">
-        <v>0.6205763854941019</v>
+        <v>0.5673043622549345</v>
       </c>
       <c r="P5">
-        <v>0.6205763854941019</v>
+        <v>0.5703126721661189</v>
       </c>
       <c r="Q5">
-        <v>0.6205763854941019</v>
+        <v>0.5795280877271456</v>
       </c>
       <c r="R5">
-        <v>0.6205763854941019</v>
+        <v>0.5881844140545509</v>
       </c>
       <c r="S5">
-        <v>0.7464905388027725</v>
+        <v>0.6952299755804559</v>
       </c>
       <c r="T5">
-        <v>0.7924464732055256</v>
+        <v>0.7404948989290496</v>
       </c>
       <c r="U5">
-        <v>0.8028360734833491</v>
+        <v>0.7582790848383679</v>
       </c>
       <c r="V5">
-        <v>0.8168477248268067</v>
+        <v>0.7788618901942873</v>
       </c>
       <c r="W5">
-        <v>0.8294321860653636</v>
+        <v>0.7983419606883302</v>
       </c>
       <c r="X5">
-        <v>0.8730209194619188</v>
+        <v>0.8417778389323931</v>
       </c>
       <c r="Y5">
-        <v>0.8730209194619188</v>
+        <v>0.8417950197810572</v>
       </c>
       <c r="Z5">
-        <v>0.8980036601414562</v>
+        <v>0.8708547635925571</v>
       </c>
       <c r="AA5">
-        <v>0.8980036601414562</v>
+        <v>0.8721772892554456</v>
       </c>
       <c r="AB5">
-        <v>0.991378138099247</v>
+        <v>0.9540806960814652</v>
       </c>
       <c r="AC5">
-        <v>0.9950713764963711</v>
+        <v>0.9666908609068144</v>
       </c>
       <c r="AD5">
-        <v>1</v>
+        <v>0.9802555602543048</v>
       </c>
       <c r="AE5">
-        <v>1</v>
+        <v>0.9890813141593967</v>
       </c>
       <c r="AF5">
-        <v>1</v>
+        <v>0.9926944458844654</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>0.9936654613763476</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <v>0.9965958760095969</v>
       </c>
       <c r="AI5">
         <v>1</v>
@@ -2352,97 +2352,97 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2757231733162987</v>
+        <v>0.2412287780588498</v>
       </c>
       <c r="E6">
-        <v>0.2769610669255573</v>
+        <v>0.2498369973983891</v>
       </c>
       <c r="F6">
-        <v>0.5098716314488122</v>
+        <v>0.454782981027248</v>
       </c>
       <c r="G6">
-        <v>0.5098716314488122</v>
+        <v>0.4614458117043364</v>
       </c>
       <c r="H6">
-        <v>0.5375893063391661</v>
+        <v>0.4924950942693713</v>
       </c>
       <c r="I6">
-        <v>0.5375893063391661</v>
+        <v>0.4924950942693713</v>
       </c>
       <c r="J6">
-        <v>0.5375893063391661</v>
+        <v>0.4924950942693713</v>
       </c>
       <c r="K6">
-        <v>0.5375893063391661</v>
+        <v>0.4924950942693713</v>
       </c>
       <c r="L6">
-        <v>0.5646530122225848</v>
+        <v>0.5229901517191623</v>
       </c>
       <c r="M6">
-        <v>0.5646530122225848</v>
+        <v>0.5229901517191623</v>
       </c>
       <c r="N6">
-        <v>0.6370214907323188</v>
+        <v>0.5918800605512677</v>
       </c>
       <c r="O6">
-        <v>0.6713436140389074</v>
+        <v>0.6285264756192082</v>
       </c>
       <c r="P6">
-        <v>0.6713436140389074</v>
+        <v>0.6285264756192082</v>
       </c>
       <c r="Q6">
-        <v>0.6713436140389074</v>
+        <v>0.6297474708803847</v>
       </c>
       <c r="R6">
-        <v>0.6713436140389074</v>
+        <v>0.6309904785704601</v>
       </c>
       <c r="S6">
-        <v>0.7899565875032717</v>
+        <v>0.7390716338895169</v>
       </c>
       <c r="T6">
-        <v>0.8640170275016844</v>
+        <v>0.8093954448501739</v>
       </c>
       <c r="U6">
-        <v>0.8640170275016844</v>
+        <v>0.8134112638173608</v>
       </c>
       <c r="V6">
-        <v>0.8769293739196131</v>
+        <v>0.8319133388055293</v>
       </c>
       <c r="W6">
-        <v>0.8826748714916788</v>
+        <v>0.8443416586380083</v>
       </c>
       <c r="X6">
-        <v>0.9110547598587135</v>
+        <v>0.8759521533347151</v>
       </c>
       <c r="Y6">
-        <v>0.9110547598587135</v>
+        <v>0.8759521533347151</v>
       </c>
       <c r="Z6">
-        <v>0.9159026427502051</v>
+        <v>0.8876197634171752</v>
       </c>
       <c r="AA6">
-        <v>0.9159026427502051</v>
+        <v>0.8876197634171752</v>
       </c>
       <c r="AB6">
-        <v>0.9763828903322522</v>
+        <v>0.9464346440964621</v>
       </c>
       <c r="AC6">
-        <v>0.9894098996576202</v>
+        <v>0.9650338935109654</v>
       </c>
       <c r="AD6">
-        <v>0.9928145429718723</v>
+        <v>0.975478388105478</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>0.9891270435915113</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0.9911625815679938</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0.9922593140728593</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0.9954201884013182</v>
       </c>
       <c r="AI6">
         <v>1</v>
@@ -2462,103 +2462,103 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1147358555423159</v>
+        <v>0.105961924526619</v>
       </c>
       <c r="E7">
-        <v>0.1147358555423159</v>
+        <v>0.105961924526619</v>
       </c>
       <c r="F7">
-        <v>0.4038238237340392</v>
+        <v>0.3639838148442087</v>
       </c>
       <c r="G7">
-        <v>0.5056965611403527</v>
+        <v>0.4587272615789418</v>
       </c>
       <c r="H7">
-        <v>0.5440054146679058</v>
+        <v>0.4980339151411066</v>
       </c>
       <c r="I7">
-        <v>0.5440054146679058</v>
+        <v>0.4980339151411066</v>
       </c>
       <c r="J7">
-        <v>0.5448665115096506</v>
+        <v>0.5046807717322827</v>
       </c>
       <c r="K7">
-        <v>0.5448665115096506</v>
+        <v>0.5046807717322827</v>
       </c>
       <c r="L7">
-        <v>0.5484008957121634</v>
+        <v>0.5136591170473448</v>
       </c>
       <c r="M7">
-        <v>0.5484008957121634</v>
+        <v>0.5136591170473448</v>
       </c>
       <c r="N7">
-        <v>0.6428252130826251</v>
+        <v>0.6019064767623244</v>
       </c>
       <c r="O7">
-        <v>0.664166113424289</v>
+        <v>0.6264146495846697</v>
       </c>
       <c r="P7">
-        <v>0.664166113424289</v>
+        <v>0.6264146495846697</v>
       </c>
       <c r="Q7">
-        <v>0.6730213610138664</v>
+        <v>0.6400335483884207</v>
       </c>
       <c r="R7">
-        <v>0.6791283218106509</v>
+        <v>0.6512555482424227</v>
       </c>
       <c r="S7">
-        <v>0.7064612574946653</v>
+        <v>0.6809896324422129</v>
       </c>
       <c r="T7">
-        <v>0.7932639952626676</v>
+        <v>0.7625898852422707</v>
       </c>
       <c r="U7">
-        <v>0.7932639952626676</v>
+        <v>0.7625898852422707</v>
       </c>
       <c r="V7">
-        <v>0.8157445617605185</v>
+        <v>0.7880920098676055</v>
       </c>
       <c r="W7">
-        <v>0.8216757721596968</v>
+        <v>0.7991607302514502</v>
       </c>
       <c r="X7">
-        <v>0.8238503674559158</v>
+        <v>0.8069531452589758</v>
       </c>
       <c r="Y7">
-        <v>0.8238503674559158</v>
+        <v>0.8109971975956892</v>
       </c>
       <c r="Z7">
-        <v>0.8417893197707261</v>
+        <v>0.832538385431588</v>
       </c>
       <c r="AA7">
-        <v>0.8839946665427697</v>
+        <v>0.8752433381050081</v>
       </c>
       <c r="AB7">
-        <v>0.8977520156159485</v>
+        <v>0.8931375701557912</v>
       </c>
       <c r="AC7">
-        <v>0.9802526272570077</v>
+        <v>0.970985753986046</v>
       </c>
       <c r="AD7">
-        <v>0.9802526272570077</v>
+        <v>0.970985753986046</v>
       </c>
       <c r="AE7">
-        <v>0.9989567892455667</v>
+        <v>0.9931943140438526</v>
       </c>
       <c r="AF7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -2572,103 +2572,103 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.04352848570419507</v>
+        <v>0.04355170761397371</v>
       </c>
       <c r="E8">
-        <v>0.06861707998714764</v>
+        <v>0.06960954176688944</v>
       </c>
       <c r="F8">
-        <v>0.2599694664454273</v>
+        <v>0.2534013709323871</v>
       </c>
       <c r="G8">
-        <v>0.3977834808405505</v>
+        <v>0.3864014961345438</v>
       </c>
       <c r="H8">
-        <v>0.3977834808405505</v>
+        <v>0.3881743997538514</v>
       </c>
       <c r="I8">
-        <v>0.4079767910603249</v>
+        <v>0.4001011195408998</v>
       </c>
       <c r="J8">
-        <v>0.4079767910603249</v>
+        <v>0.4001011195408998</v>
       </c>
       <c r="K8">
-        <v>0.4079767910603249</v>
+        <v>0.4001011195408998</v>
       </c>
       <c r="L8">
-        <v>0.4079767910603249</v>
+        <v>0.4001011195408998</v>
       </c>
       <c r="M8">
-        <v>0.4082837712764611</v>
+        <v>0.402648705680845</v>
       </c>
       <c r="N8">
-        <v>0.4969100506845324</v>
+        <v>0.488984564155906</v>
       </c>
       <c r="O8">
-        <v>0.5754725356114144</v>
+        <v>0.5657729289299355</v>
       </c>
       <c r="P8">
-        <v>0.5754725356114144</v>
+        <v>0.5657729289299355</v>
       </c>
       <c r="Q8">
-        <v>0.5790840262106148</v>
+        <v>0.5714554948358396</v>
       </c>
       <c r="R8">
-        <v>0.6099583431784679</v>
+        <v>0.6030022279317189</v>
       </c>
       <c r="S8">
-        <v>0.6179982453454763</v>
+        <v>0.6128860155168069</v>
       </c>
       <c r="T8">
-        <v>0.737988947799199</v>
+        <v>0.7289772144874003</v>
       </c>
       <c r="U8">
-        <v>0.7672053982394785</v>
+        <v>0.7589511342414785</v>
       </c>
       <c r="V8">
-        <v>0.7691901042324055</v>
+        <v>0.7630903741374606</v>
       </c>
       <c r="W8">
-        <v>0.7883737650199445</v>
+        <v>0.7835462143846135</v>
       </c>
       <c r="X8">
-        <v>0.7883737650199445</v>
+        <v>0.7856926530633966</v>
       </c>
       <c r="Y8">
-        <v>0.8125904021302229</v>
+        <v>0.8109232638832806</v>
       </c>
       <c r="Z8">
-        <v>0.8125904021302229</v>
+        <v>0.8109232638832806</v>
       </c>
       <c r="AA8">
-        <v>0.8624898149508033</v>
+        <v>0.8605190522490139</v>
       </c>
       <c r="AB8">
-        <v>0.8624898149508033</v>
+        <v>0.8605190522490139</v>
       </c>
       <c r="AC8">
-        <v>0.9876440289114481</v>
+        <v>0.981508860156792</v>
       </c>
       <c r="AD8">
-        <v>0.9890445564175894</v>
+        <v>0.9850938915548471</v>
       </c>
       <c r="AE8">
-        <v>0.9961823742224344</v>
+        <v>0.9941218742264253</v>
       </c>
       <c r="AF8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -2682,103 +2682,103 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2441759852352025</v>
+        <v>0.2061285287300041</v>
       </c>
       <c r="E9">
-        <v>0.2441759852352025</v>
+        <v>0.2080901292265996</v>
       </c>
       <c r="F9">
-        <v>0.4249434032802634</v>
+        <v>0.3632168325915948</v>
       </c>
       <c r="G9">
-        <v>0.433697469259495</v>
+        <v>0.3799869174226322</v>
       </c>
       <c r="H9">
-        <v>0.4836973767960439</v>
+        <v>0.4299325383264384</v>
       </c>
       <c r="I9">
-        <v>0.4836973767960439</v>
+        <v>0.4299325383264384</v>
       </c>
       <c r="J9">
-        <v>0.4836973767960439</v>
+        <v>0.4299325383264384</v>
       </c>
       <c r="K9">
-        <v>0.4836973767960439</v>
+        <v>0.4299325383264384</v>
       </c>
       <c r="L9">
-        <v>0.4914007969178424</v>
+        <v>0.4458575503397825</v>
       </c>
       <c r="M9">
-        <v>0.4914007969178424</v>
+        <v>0.4484280313467615</v>
       </c>
       <c r="N9">
-        <v>0.5937469585305719</v>
+        <v>0.5404776553405609</v>
       </c>
       <c r="O9">
-        <v>0.5937469585305719</v>
+        <v>0.5473564801738737</v>
       </c>
       <c r="P9">
-        <v>0.5937469585305719</v>
+        <v>0.5473564801738737</v>
       </c>
       <c r="Q9">
-        <v>0.600484667798192</v>
+        <v>0.5625047356932538</v>
       </c>
       <c r="R9">
-        <v>0.600484667798192</v>
+        <v>0.5628416868934126</v>
       </c>
       <c r="S9">
-        <v>0.6860354064235578</v>
+        <v>0.6413821390498429</v>
       </c>
       <c r="T9">
-        <v>0.8009559181349767</v>
+        <v>0.7435457718634402</v>
       </c>
       <c r="U9">
-        <v>0.8009559181349767</v>
+        <v>0.7460998106158776</v>
       </c>
       <c r="V9">
-        <v>0.8036102757459932</v>
+        <v>0.7579636773322506</v>
       </c>
       <c r="W9">
-        <v>0.8036102757459932</v>
+        <v>0.7579636773322506</v>
       </c>
       <c r="X9">
-        <v>0.8419775584052561</v>
+        <v>0.7985527533901698</v>
       </c>
       <c r="Y9">
-        <v>0.8419775584052561</v>
+        <v>0.8038875960350264</v>
       </c>
       <c r="Z9">
-        <v>0.8563840164983244</v>
+        <v>0.8252041061877398</v>
       </c>
       <c r="AA9">
-        <v>0.8563840164983244</v>
+        <v>0.8331475231230294</v>
       </c>
       <c r="AB9">
-        <v>0.9207274254129003</v>
+        <v>0.8946301458047065</v>
       </c>
       <c r="AC9">
-        <v>0.9782712409253491</v>
+        <v>0.9506436072891522</v>
       </c>
       <c r="AD9">
-        <v>0.9782712409253491</v>
+        <v>0.9513752516578822</v>
       </c>
       <c r="AE9">
-        <v>0.9945446675810548</v>
+        <v>0.9741934327805145</v>
       </c>
       <c r="AF9">
-        <v>0.9957586323939646</v>
+        <v>0.9848987389868264</v>
       </c>
       <c r="AG9">
-        <v>0.9957586323939646</v>
+        <v>0.9866653053153488</v>
       </c>
       <c r="AH9">
-        <v>0.9957586323939646</v>
+        <v>0.9868596432097264</v>
       </c>
       <c r="AI9">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ9">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -2792,103 +2792,103 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01329749744676093</v>
+        <v>0.01688223507980403</v>
       </c>
       <c r="E10">
-        <v>0.1433768689981259</v>
+        <v>0.1399033506314864</v>
       </c>
       <c r="F10">
-        <v>0.2048610303298283</v>
+        <v>0.2005807259900056</v>
       </c>
       <c r="G10">
-        <v>0.4096416142521352</v>
+        <v>0.3914951093260524</v>
       </c>
       <c r="H10">
-        <v>0.4096416142521352</v>
+        <v>0.3914951093260524</v>
       </c>
       <c r="I10">
-        <v>0.4393602327034517</v>
+        <v>0.4233019156450163</v>
       </c>
       <c r="J10">
-        <v>0.4393602327034517</v>
+        <v>0.4233019156450163</v>
       </c>
       <c r="K10">
-        <v>0.4393602327034517</v>
+        <v>0.4233019156450163</v>
       </c>
       <c r="L10">
-        <v>0.4393602327034517</v>
+        <v>0.4233019156450163</v>
       </c>
       <c r="M10">
-        <v>0.4475621906122101</v>
+        <v>0.4355529965657482</v>
       </c>
       <c r="N10">
-        <v>0.4700445030081478</v>
+        <v>0.4607829823861662</v>
       </c>
       <c r="O10">
-        <v>0.5466489640350847</v>
+        <v>0.5352026588882171</v>
       </c>
       <c r="P10">
-        <v>0.5466489640350847</v>
+        <v>0.5352026588882171</v>
       </c>
       <c r="Q10">
-        <v>0.5466489640350847</v>
+        <v>0.5352026588882171</v>
       </c>
       <c r="R10">
-        <v>0.5618049599054846</v>
+        <v>0.5537740169038896</v>
       </c>
       <c r="S10">
-        <v>0.5618049599054846</v>
+        <v>0.5537740169038896</v>
       </c>
       <c r="T10">
-        <v>0.6748108023420066</v>
+        <v>0.6612776107524158</v>
       </c>
       <c r="U10">
-        <v>0.75760827073676</v>
+        <v>0.7413258907840293</v>
       </c>
       <c r="V10">
-        <v>0.75760827073676</v>
+        <v>0.7413258907840293</v>
       </c>
       <c r="W10">
-        <v>0.7769718816901433</v>
+        <v>0.763721400088492</v>
       </c>
       <c r="X10">
-        <v>0.7769718816901433</v>
+        <v>0.763721400088492</v>
       </c>
       <c r="Y10">
-        <v>0.8120408513246135</v>
+        <v>0.8003909497832187</v>
       </c>
       <c r="Z10">
-        <v>0.8120408513246135</v>
+        <v>0.8003909497832187</v>
       </c>
       <c r="AA10">
-        <v>0.8616589108285182</v>
+        <v>0.8502836483824008</v>
       </c>
       <c r="AB10">
-        <v>0.8616589108285182</v>
+        <v>0.8502836483824008</v>
       </c>
       <c r="AC10">
-        <v>0.9579524955443881</v>
+        <v>0.9425980672135893</v>
       </c>
       <c r="AD10">
-        <v>0.9788252880270408</v>
+        <v>0.9663652177866447</v>
       </c>
       <c r="AE10">
-        <v>0.9791113433958138</v>
+        <v>0.9714218172010601</v>
       </c>
       <c r="AF10">
-        <v>0.997552416064229</v>
+        <v>0.9929788643596655</v>
       </c>
       <c r="AG10">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AH10">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AJ10">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -2902,103 +2902,103 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03414007582098132</v>
+        <v>0.03008273830937664</v>
       </c>
       <c r="E11">
-        <v>0.08216260945637704</v>
+        <v>0.07623785353070638</v>
       </c>
       <c r="F11">
-        <v>0.205343615318913</v>
+        <v>0.2094074808730018</v>
       </c>
       <c r="G11">
-        <v>0.3393539018642339</v>
+        <v>0.3551146777974161</v>
       </c>
       <c r="H11">
-        <v>0.3393539018642339</v>
+        <v>0.3551146777974161</v>
       </c>
       <c r="I11">
-        <v>0.3474436990556749</v>
+        <v>0.3551146777974161</v>
       </c>
       <c r="J11">
-        <v>0.4089449000145272</v>
+        <v>0.4168746826131867</v>
       </c>
       <c r="K11">
-        <v>0.419141600658049</v>
+        <v>0.4192370449242398</v>
       </c>
       <c r="L11">
-        <v>0.419141600658049</v>
+        <v>0.4192370449242398</v>
       </c>
       <c r="M11">
-        <v>0.4219039727464565</v>
+        <v>0.4192370449242398</v>
       </c>
       <c r="N11">
-        <v>0.4300601914310735</v>
+        <v>0.4192370449242398</v>
       </c>
       <c r="O11">
-        <v>0.6042552139936058</v>
+        <v>0.6114680081737602</v>
       </c>
       <c r="P11">
-        <v>0.6042552139936058</v>
+        <v>0.6114680081737602</v>
       </c>
       <c r="Q11">
-        <v>0.6042552139936058</v>
+        <v>0.6114680081737602</v>
       </c>
       <c r="R11">
-        <v>0.647806127800482</v>
+        <v>0.6524461179792114</v>
       </c>
       <c r="S11">
-        <v>0.647806127800482</v>
+        <v>0.6524461179792114</v>
       </c>
       <c r="T11">
-        <v>0.8507477224040149</v>
+        <v>0.8779583450327425</v>
       </c>
       <c r="U11">
-        <v>0.8626756926902539</v>
+        <v>0.882325079956049</v>
       </c>
       <c r="V11">
-        <v>0.8802924601430681</v>
+        <v>0.8932780039720325</v>
       </c>
       <c r="W11">
-        <v>0.8802924601430681</v>
+        <v>0.8932780039720325</v>
       </c>
       <c r="X11">
-        <v>0.8919329443899732</v>
+        <v>0.8973119027331211</v>
       </c>
       <c r="Y11">
-        <v>0.8962583058618533</v>
+        <v>0.8973119027331211</v>
       </c>
       <c r="Z11">
-        <v>0.8972087826031832</v>
+        <v>0.8973119027331211</v>
       </c>
       <c r="AA11">
-        <v>0.9031473062290051</v>
+        <v>0.8973119027331211</v>
       </c>
       <c r="AB11">
-        <v>0.9031473062290051</v>
+        <v>0.8973119027331211</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AD11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AE11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AF11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ11">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -3072,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5687507249221986</v>
+        <v>0.5551081099409741</v>
       </c>
       <c r="G2">
         <v>12</v>
@@ -3107,16 +3107,16 @@
         <v>2</v>
       </c>
       <c r="D3">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.5735678892758115</v>
+      </c>
+      <c r="G3">
         <v>12</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.5189482025121527</v>
-      </c>
-      <c r="G3">
-        <v>10</v>
       </c>
       <c r="H3">
         <v>13</v>
@@ -3148,16 +3148,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5178569530461781</v>
+        <v>0.5818237428554514</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4">
         <v>13</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6012164217044564</v>
+        <v>0.542589121727017</v>
       </c>
       <c r="G5">
         <v>12</v>
@@ -3230,16 +3230,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5098716314488122</v>
+        <v>0.5229901517191623</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H6">
         <v>13</v>
@@ -3271,16 +3271,16 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5056965611403527</v>
+        <v>0.5046807717322827</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H7">
         <v>13</v>
@@ -3318,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5754725356114144</v>
+        <v>0.5657729289299355</v>
       </c>
       <c r="G8">
         <v>12</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5937469585305719</v>
+        <v>0.5404776553405609</v>
       </c>
       <c r="G9">
         <v>12</v>
@@ -3400,7 +3400,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5466489640350847</v>
+        <v>0.5352026588882171</v>
       </c>
       <c r="G10">
         <v>12</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.6042552139936058</v>
+        <v>0.6114680081737602</v>
       </c>
       <c r="G11">
         <v>12</v>
@@ -3536,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7706492876254465</v>
+        <v>0.7595241440384689</v>
       </c>
       <c r="G2">
         <v>18</v>
@@ -3577,7 +3577,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7394925734221207</v>
+        <v>0.7075403831171795</v>
       </c>
       <c r="G3">
         <v>17</v>
@@ -3618,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8028946941430707</v>
+        <v>0.7382910911567842</v>
       </c>
       <c r="G4">
         <v>18</v>
@@ -3653,16 +3653,16 @@
         <v>1</v>
       </c>
       <c r="D5">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.7404948989290496</v>
+      </c>
+      <c r="G5">
         <v>18</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.7464905388027725</v>
-      </c>
-      <c r="G5">
-        <v>17</v>
       </c>
       <c r="H5">
         <v>13</v>
@@ -3700,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7899565875032717</v>
+        <v>0.7390716338895169</v>
       </c>
       <c r="G6">
         <v>17</v>
@@ -3735,16 +3735,16 @@
         <v>1</v>
       </c>
       <c r="D7">
+        <v>19</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.7625898852422707</v>
+      </c>
+      <c r="G7">
         <v>18</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.7064612574946653</v>
-      </c>
-      <c r="G7">
-        <v>17</v>
       </c>
       <c r="H7">
         <v>13</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.737988947799199</v>
+        <v>0.7289772144874003</v>
       </c>
       <c r="G8">
         <v>17</v>
@@ -3823,7 +3823,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8009559181349767</v>
+        <v>0.7435457718634402</v>
       </c>
       <c r="G9">
         <v>18</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.75760827073676</v>
+        <v>0.7413258907840293</v>
       </c>
       <c r="G10">
         <v>18</v>
@@ -3905,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8507477224040149</v>
+        <v>0.8779583450327425</v>
       </c>
       <c r="G11">
         <v>17</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8454300587039357</v>
+        <v>0.8336168321565112</v>
       </c>
       <c r="G2">
         <v>20</v>
@@ -4035,16 +4035,16 @@
         <v>2</v>
       </c>
       <c r="D3">
+        <v>22</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.8313514749383984</v>
+      </c>
+      <c r="G3">
         <v>20</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.8123785990308876</v>
-      </c>
-      <c r="G3">
-        <v>18</v>
       </c>
       <c r="H3">
         <v>13</v>
@@ -4076,16 +4076,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8028946941430707</v>
+        <v>0.8185180812515606</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H4">
         <v>13</v>
@@ -4117,16 +4117,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8028360734833491</v>
+        <v>0.8417778389323931</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H5">
         <v>13</v>
@@ -4164,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8640170275016844</v>
+        <v>0.8093954448501739</v>
       </c>
       <c r="G6">
         <v>18</v>
@@ -4199,16 +4199,16 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8157445617605185</v>
+        <v>0.8069531452589758</v>
       </c>
       <c r="G7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H7">
         <v>13</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8125904021302229</v>
+        <v>0.8109232638832806</v>
       </c>
       <c r="G8">
         <v>22</v>
@@ -4281,16 +4281,16 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8009559181349767</v>
+        <v>0.8038875960350264</v>
       </c>
       <c r="G9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H9">
         <v>13</v>
@@ -4328,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8120408513246135</v>
+        <v>0.8003909497832187</v>
       </c>
       <c r="G10">
         <v>22</v>
@@ -4369,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8507477224040149</v>
+        <v>0.8779583450327425</v>
       </c>
       <c r="G11">
         <v>17</v>
@@ -4464,7 +4464,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9474018007277922</v>
+        <v>0.9435223199286447</v>
       </c>
       <c r="G2">
         <v>26</v>
@@ -4499,16 +4499,16 @@
         <v>2</v>
       </c>
       <c r="D3">
+        <v>28</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.9487571997802987</v>
+      </c>
+      <c r="G3">
         <v>26</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.9139261572121128</v>
-      </c>
-      <c r="G3">
-        <v>24</v>
       </c>
       <c r="H3">
         <v>13</v>
@@ -4540,16 +4540,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9084623007353076</v>
+        <v>0.9550342946900946</v>
       </c>
       <c r="G4">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H4">
         <v>13</v>
@@ -4587,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.991378138099247</v>
+        <v>0.9540806960814652</v>
       </c>
       <c r="G5">
         <v>26</v>
@@ -4622,16 +4622,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9110547598587135</v>
+        <v>0.9464346440964621</v>
       </c>
       <c r="G6">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H6">
         <v>13</v>
@@ -4669,7 +4669,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9802526272570077</v>
+        <v>0.970985753986046</v>
       </c>
       <c r="G7">
         <v>27</v>
@@ -4710,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9876440289114481</v>
+        <v>0.981508860156792</v>
       </c>
       <c r="G8">
         <v>26</v>
@@ -4745,16 +4745,16 @@
         <v>1</v>
       </c>
       <c r="D9">
+        <v>28</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.9506436072891522</v>
+      </c>
+      <c r="G9">
         <v>27</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.9207274254129003</v>
-      </c>
-      <c r="G9">
-        <v>26</v>
       </c>
       <c r="H9">
         <v>13</v>
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9579524955443881</v>
+        <v>0.9425980672135893</v>
       </c>
       <c r="G10">
         <v>26</v>
@@ -4827,16 +4827,16 @@
         <v>2</v>
       </c>
       <c r="D11">
+        <v>28</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="G11">
         <v>26</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.9031473062290051</v>
-      </c>
-      <c r="G11">
-        <v>24</v>
       </c>
       <c r="H11">
         <v>13</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/13_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/13_11R22.xlsx
@@ -159,40 +159,43 @@
     <t>signal segment 10</t>
   </si>
   <si>
+    <t>First_Noticeable_Increase_Cumulative_Value</t>
+  </si>
+  <si>
+    <t>First_Noticeable_Increase_Index</t>
+  </si>
+  <si>
     <t>Intensity_Threshold</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Index</t>
+    <t>Point_Exceeds_Cumulative_Value</t>
   </si>
   <si>
     <t>Point_Exceeds_Index</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Cumulative_Value</t>
-  </si>
-  <si>
-    <t>Point_Exceeds_Cumulative_Value</t>
+    <t>Pressure</t>
   </si>
   <si>
     <t>Pulse_Width</t>
   </si>
   <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>TireSize</t>
+  </si>
+  <si>
     <t>Tire_Number</t>
   </si>
   <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>TireSize</t>
-  </si>
-  <si>
     <t>Tire_Type</t>
   </si>
   <si>
     <t>Wear</t>
   </si>
   <si>
-    <t>Rim</t>
+    <t>Ir</t>
   </si>
   <si>
     <t>11R22.5</t>
@@ -202,9 +205,6 @@
   </si>
   <si>
     <t>0%</t>
-  </si>
-  <si>
-    <t>Ir</t>
   </si>
 </sst>
 </file>
@@ -692,16 +692,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1006402440482612</v>
+        <v>0.1174928097343773</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.2776305698212251</v>
+        <v>0.4007450648904041</v>
       </c>
       <c r="H2">
-        <v>0.04670196330201438</v>
+        <v>0.03117091844518038</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -713,67 +713,67 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.0003589694371546986</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.03983692696414212</v>
+        <v>0.0201842330659763</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.08993943636817661</v>
+        <v>0.100367422263974</v>
       </c>
       <c r="P2">
-        <v>0.07036852259690116</v>
+        <v>0.06904647047201617</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.009780004621886013</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0.04662351326936778</v>
+        <v>0.03104536837024174</v>
       </c>
       <c r="U2">
-        <v>0.07764399360933978</v>
+        <v>0.08069000840323083</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0.07409268811804225</v>
+        <v>0.07500656053812911</v>
       </c>
       <c r="X2">
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.0306277956949455</v>
+        <v>0.005446098715210064</v>
       </c>
       <c r="Z2">
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.02221433189982451</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.005726072826311566</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.05133728735105199</v>
+        <v>0.03858921085486321</v>
       </c>
       <c r="AD2">
-        <v>0.0461051784206717</v>
+        <v>0.0302158342463967</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.01037250165068371</v>
+        <v>0</v>
       </c>
       <c r="AG2">
         <v>0</v>
@@ -802,19 +802,19 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1718283695370694</v>
+        <v>0.25045686664526</v>
       </c>
       <c r="F3">
-        <v>0.009604362788291689</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.23293728129032</v>
+        <v>0.3578946603395666</v>
       </c>
       <c r="H3">
-        <v>0.01325958532744771</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.02135698316977176</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -826,67 +826,67 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.04157794774467134</v>
+        <v>0.0214588769308758</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.08300335941823953</v>
+        <v>0.09429039536893397</v>
       </c>
       <c r="P3">
-        <v>0.04808957334576822</v>
+        <v>0.03290720202575033</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.005109161913798133</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.08077375858180159</v>
+        <v>0.09037045328825816</v>
       </c>
       <c r="U3">
-        <v>0.0700825264041489</v>
+        <v>0.07157381030959338</v>
       </c>
       <c r="V3">
-        <v>0.006160744948821714</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.0475678204682484</v>
+        <v>0.03198988937189828</v>
       </c>
       <c r="X3">
-        <v>8.928490838507455E-05</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.03174866797862248</v>
+        <v>0.004177663743304915</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.03040855648821498</v>
+        <v>0.001821565136687006</v>
       </c>
       <c r="AB3">
-        <v>0.001295678502372807</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.05386353696430494</v>
+        <v>0.04305861683987165</v>
       </c>
       <c r="AD3">
-        <v>0.02255339508039105</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.01243198867744841</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.01511452323736501</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.0004053466553059067</v>
+        <v>0</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.0007375465691909746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -909,16 +909,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0557310512538331</v>
+        <v>0.05508323658707735</v>
       </c>
       <c r="E4">
-        <v>0.03051444075148829</v>
+        <v>0.001120391222225112</v>
       </c>
       <c r="F4">
-        <v>0.1509619695861483</v>
+        <v>0.2588747540648821</v>
       </c>
       <c r="G4">
-        <v>0.1386407423299026</v>
+        <v>0.2325076703098247</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -930,79 +930,79 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.01441842363084149</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0222547764279939</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.04891387802232017</v>
+        <v>0.04049467541295227</v>
       </c>
       <c r="N4">
-        <v>0.03675325766946478</v>
+        <v>0.01447128596571509</v>
       </c>
       <c r="O4">
-        <v>0.0836352031834587</v>
+        <v>0.114797345883238</v>
       </c>
       <c r="P4">
-        <v>0.007642079429365582</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.003866972345536128</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.01030404853252929</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.02329020969770606</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.1113640382961958</v>
+        <v>0.1741362820656794</v>
       </c>
       <c r="U4">
-        <v>0.00627466333599622</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.04507223101037397</v>
+        <v>0.03227365761864076</v>
       </c>
       <c r="W4">
-        <v>0.01017822002186782</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.01870187572653838</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.01017435974719463</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.01816324927053585</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.03708249854864257</v>
+        <v>0.01517585229310501</v>
       </c>
       <c r="AB4">
-        <v>0.0125698725129806</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.05852623335918054</v>
+        <v>0.06106484857666021</v>
       </c>
       <c r="AD4">
-        <v>5.903911748252587E-05</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.02793173819001132</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.007728910385219613</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.002490717691921448</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.002521642674816164</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.004233657250454174</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -1019,100 +1019,100 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.136702420613279</v>
+        <v>0.2093222225839033</v>
       </c>
       <c r="E5">
-        <v>0.06245821018758637</v>
+        <v>0.063712363592313</v>
       </c>
       <c r="F5">
-        <v>0.1612061952874677</v>
+        <v>0.2573797230221542</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0139249076268626</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.01451594499765919</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.04088438973624033</v>
+        <v>0.02140117278270208</v>
       </c>
       <c r="M5">
-        <v>0.01216316642907709</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.1007338868488448</v>
+        <v>0.1387797102513713</v>
       </c>
       <c r="O5">
-        <v>0.02471524052791747</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.003008309911184384</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.009215415561026695</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.00865632632740531</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.107045561525905</v>
+        <v>0.1511583463020213</v>
       </c>
       <c r="T5">
-        <v>0.04526492334859379</v>
+        <v>0.02999240000359226</v>
       </c>
       <c r="U5">
-        <v>0.01778418590931827</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.02058280535591939</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.01948007049404289</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.0434358782440629</v>
+        <v>0.02640522467728779</v>
       </c>
       <c r="Y5">
-        <v>1.718084866405645E-05</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.02905974381149989</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.001322525662888474</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.08190340682601964</v>
+        <v>0.1018488367846548</v>
       </c>
       <c r="AC5">
-        <v>0.01261016482534924</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.01356469934749036</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.008825753905091839</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.003613131725068674</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.0009710154918821906</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.002930414633249291</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.003404123990403366</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2412287780588498</v>
+        <v>0.3604577062441743</v>
       </c>
       <c r="E6">
-        <v>0.008608219339539241</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.2049459836288589</v>
+        <v>0.2987002825116187</v>
       </c>
       <c r="G6">
-        <v>0.006662830677088391</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.03104928256503493</v>
+        <v>0.002708410275475642</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1153,76 +1153,76 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.03049505744979102</v>
+        <v>0.001765056384931572</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.0688899088321054</v>
+        <v>0.06711744015849525</v>
       </c>
       <c r="O6">
-        <v>0.03664641506794038</v>
+        <v>0.01223536345258454</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.00122099526117655</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.001243007690075308</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.1080811553190568</v>
+        <v>0.1338253785608652</v>
       </c>
       <c r="T6">
-        <v>0.07032381096065697</v>
+        <v>0.06955810391483411</v>
       </c>
       <c r="U6">
-        <v>0.004015818967186897</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.01850207498816845</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.01242831983247897</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.03161049469670681</v>
+        <v>0.003663656858987473</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.01166761008246008</v>
+        <v>0</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.05881488067928684</v>
+        <v>0.04996860163803298</v>
       </c>
       <c r="AC6">
-        <v>0.01859924941450333</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.01044449459451271</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.01364865548603322</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.00203553797648248</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.001096732504865538</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.003160874328458887</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.004579811598682034</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -1239,91 +1239,91 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.105961924526619</v>
+        <v>0.1379847312789128</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.2580218903175897</v>
+        <v>0.4094291433391471</v>
       </c>
       <c r="G7">
-        <v>0.09474344673473314</v>
+        <v>0.1179584666892224</v>
       </c>
       <c r="H7">
-        <v>0.0393066535621648</v>
+        <v>0.01899745712330965</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.006646856591176061</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.008978345315062194</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.08824735971497966</v>
+        <v>0.1063622091693894</v>
       </c>
       <c r="O7">
-        <v>0.02450817282234527</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.01361889880375104</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>0.01122199985400201</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>0.02973408419979022</v>
+        <v>0.001909327128281887</v>
       </c>
       <c r="T7">
-        <v>0.08160025280005774</v>
+        <v>0.09449636388238722</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
       <c r="V7">
-        <v>0.02550212462533483</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>0.01106872038384462</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>0.007792415007525539</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>0.004044052336713435</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>0.0215411878358988</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>0.04270495267342009</v>
+        <v>0.02506380929865838</v>
       </c>
       <c r="AB7">
-        <v>0.0178942320507831</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>0.07784818383025485</v>
+        <v>0.08779849209069125</v>
       </c>
       <c r="AD7">
         <v>0</v>
       </c>
       <c r="AE7">
-        <v>0.0222085600578066</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>0.006805685956147239</v>
+        <v>0</v>
       </c>
       <c r="AG7">
         <v>0</v>
@@ -1349,22 +1349,22 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.04355170761397371</v>
+        <v>0.02608224830959543</v>
       </c>
       <c r="E8">
-        <v>0.02605783415291572</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.1837918291654977</v>
+        <v>0.2637591004144899</v>
       </c>
       <c r="G8">
-        <v>0.1330001252021566</v>
+        <v>0.1776780832455525</v>
       </c>
       <c r="H8">
-        <v>0.001772903619307663</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.01192671978704839</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1376,64 +1376,64 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.002547586139945211</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.08633585847506098</v>
+        <v>0.09859218472538875</v>
       </c>
       <c r="O8">
-        <v>0.07678836477402945</v>
+        <v>0.08241123576978779</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.005682565905904143</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>0.03154673309587932</v>
+        <v>0.00573639776773142</v>
       </c>
       <c r="S8">
-        <v>0.009883787585087971</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>0.1160911989705933</v>
+        <v>0.1490210889793623</v>
       </c>
       <c r="U8">
-        <v>0.02997391975407821</v>
+        <v>0.003070817334028461</v>
       </c>
       <c r="V8">
-        <v>0.004139239895982029</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>0.02045584024715288</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>0.002146438678783215</v>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <v>0.02523061081988397</v>
+        <v>0</v>
       </c>
       <c r="Z8">
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>0.04959578836573328</v>
+        <v>0.03632566560739216</v>
       </c>
       <c r="AB8">
         <v>0</v>
       </c>
       <c r="AC8">
-        <v>0.120989807907778</v>
+        <v>0.1573231778466712</v>
       </c>
       <c r="AD8">
-        <v>0.00358503139805516</v>
+        <v>0</v>
       </c>
       <c r="AE8">
-        <v>0.009027982671578229</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>0.005878125773574631</v>
+        <v>0</v>
       </c>
       <c r="AG8">
         <v>0</v>
@@ -1459,19 +1459,19 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2061285287300041</v>
+        <v>0.3077524019931844</v>
       </c>
       <c r="E9">
-        <v>0.001961600496595513</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1551267033649951</v>
+        <v>0.2186594544337654</v>
       </c>
       <c r="G9">
-        <v>0.01677008483103744</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0.04994562090380621</v>
+        <v>0.03492303721943653</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1483,76 +1483,76 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.0159250120133441</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.002570481006978993</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.09204962399379939</v>
+        <v>0.1084727525971132</v>
       </c>
       <c r="O9">
-        <v>0.006878824833312849</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.01514825551938</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>0.0003369512001588782</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>0.0785404521564303</v>
+        <v>0.08487414745966559</v>
       </c>
       <c r="T9">
-        <v>0.1021636328135973</v>
+        <v>0.1261404899957038</v>
       </c>
       <c r="U9">
-        <v>0.002554038752437428</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>0.01186386671637297</v>
+        <v>0</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>0.04058907605791925</v>
+        <v>0.01857848183683893</v>
       </c>
       <c r="Y9">
-        <v>0.005334842644856494</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>0.0213165101527134</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>0.007943416935289679</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.06148262268167706</v>
+        <v>0.05507654127605727</v>
       </c>
       <c r="AC9">
-        <v>0.05601346148444573</v>
+        <v>0.04552269318823494</v>
       </c>
       <c r="AD9">
-        <v>0.0007316443687299448</v>
+        <v>0</v>
       </c>
       <c r="AE9">
-        <v>0.02281818112263239</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>0.01070530620631191</v>
+        <v>0</v>
       </c>
       <c r="AG9">
-        <v>0.001766566328522355</v>
+        <v>0</v>
       </c>
       <c r="AH9">
-        <v>0.0001943378943776349</v>
+        <v>0</v>
       </c>
       <c r="AI9">
-        <v>0.01314035679027339</v>
+        <v>0</v>
       </c>
       <c r="AJ9">
         <v>0</v>
@@ -1569,22 +1569,22 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01688223507980403</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1230211155516824</v>
+        <v>0.1674073474069944</v>
       </c>
       <c r="F10">
-        <v>0.06067737535851916</v>
+        <v>0.05766716861659101</v>
       </c>
       <c r="G10">
-        <v>0.1909143833360468</v>
+        <v>0.2869160474342338</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.03180680631896398</v>
+        <v>0.006847930015168264</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1596,13 +1596,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.01225108092073186</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.02522998582041804</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.07441967650205081</v>
+        <v>0.08185696826303744</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1611,52 +1611,52 @@
         <v>0</v>
       </c>
       <c r="R10">
-        <v>0.01857135801567251</v>
+        <v>0</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0.1075035938485262</v>
+        <v>0.1400927268723241</v>
       </c>
       <c r="U10">
-        <v>0.08004828003161353</v>
+        <v>0.09176468242585001</v>
       </c>
       <c r="V10">
         <v>0</v>
       </c>
       <c r="W10">
-        <v>0.0223955093044627</v>
+        <v>0</v>
       </c>
       <c r="X10">
         <v>0</v>
       </c>
       <c r="Y10">
-        <v>0.03666954969472672</v>
+        <v>0.01540754363178239</v>
       </c>
       <c r="Z10">
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>0.04989269859918209</v>
+        <v>0.03868350879606351</v>
       </c>
       <c r="AB10">
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>0.09231441883118856</v>
+        <v>0.113356076537955</v>
       </c>
       <c r="AD10">
-        <v>0.02376715057305548</v>
+        <v>0</v>
       </c>
       <c r="AE10">
-        <v>0.005056599414415434</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>0.02155704715860544</v>
+        <v>0</v>
       </c>
       <c r="AG10">
-        <v>0.007021135640334111</v>
+        <v>0</v>
       </c>
       <c r="AH10">
         <v>0</v>
@@ -1679,16 +1679,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03008273830937664</v>
+        <v>0.01110297198368486</v>
       </c>
       <c r="E11">
-        <v>0.04615511522132973</v>
+        <v>0.03154892289057207</v>
       </c>
       <c r="F11">
-        <v>0.1331696273422954</v>
+        <v>0.1422416009405055</v>
       </c>
       <c r="G11">
-        <v>0.1457071969244143</v>
+        <v>0.1581908618103799</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1697,10 +1697,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06176000481577062</v>
+        <v>0.05140017502976562</v>
       </c>
       <c r="K11">
-        <v>0.002362362311053106</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.1922309632495204</v>
+        <v>0.217374556138702</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1721,25 +1721,25 @@
         <v>0</v>
       </c>
       <c r="R11">
-        <v>0.04097810980545115</v>
+        <v>0.02496316403501521</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>0.2255122270535311</v>
+        <v>0.2597122321143008</v>
       </c>
       <c r="U11">
-        <v>0.004366734923306504</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>0.01095292401598349</v>
+        <v>0</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>0.004033898761088654</v>
+        <v>0</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="AC11">
-        <v>0.1026880972668787</v>
+        <v>0.1034655150570739</v>
       </c>
       <c r="AD11">
         <v>0</v>
@@ -1915,85 +1915,85 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1006402440482612</v>
+        <v>0.1174928097343773</v>
       </c>
       <c r="F2">
-        <v>0.1006402440482612</v>
+        <v>0.1174928097343773</v>
       </c>
       <c r="G2">
-        <v>0.3782708138694864</v>
+        <v>0.5182378746247814</v>
       </c>
       <c r="H2">
-        <v>0.4249727771715007</v>
+        <v>0.5494087930699618</v>
       </c>
       <c r="I2">
-        <v>0.4249727771715007</v>
+        <v>0.5494087930699618</v>
       </c>
       <c r="J2">
-        <v>0.4249727771715007</v>
+        <v>0.5494087930699618</v>
       </c>
       <c r="K2">
-        <v>0.4249727771715007</v>
+        <v>0.5494087930699618</v>
       </c>
       <c r="L2">
-        <v>0.4253317466086554</v>
+        <v>0.5494087930699618</v>
       </c>
       <c r="M2">
-        <v>0.4651686735727975</v>
+        <v>0.5695930261359381</v>
       </c>
       <c r="N2">
-        <v>0.4651686735727975</v>
+        <v>0.5695930261359381</v>
       </c>
       <c r="O2">
-        <v>0.5551081099409741</v>
+        <v>0.6699604483999121</v>
       </c>
       <c r="P2">
-        <v>0.6254766325378753</v>
+        <v>0.7390069188719283</v>
       </c>
       <c r="Q2">
-        <v>0.6254766325378753</v>
+        <v>0.7390069188719283</v>
       </c>
       <c r="R2">
-        <v>0.6352566371597613</v>
+        <v>0.7390069188719283</v>
       </c>
       <c r="S2">
-        <v>0.6352566371597613</v>
+        <v>0.7390069188719283</v>
       </c>
       <c r="T2">
-        <v>0.6818801504291291</v>
+        <v>0.77005228724217</v>
       </c>
       <c r="U2">
-        <v>0.7595241440384689</v>
+        <v>0.8507422956454008</v>
       </c>
       <c r="V2">
-        <v>0.7595241440384689</v>
+        <v>0.8507422956454008</v>
       </c>
       <c r="W2">
-        <v>0.8336168321565112</v>
+        <v>0.92574885618353</v>
       </c>
       <c r="X2">
-        <v>0.8336168321565112</v>
+        <v>0.92574885618353</v>
       </c>
       <c r="Y2">
-        <v>0.8642446278514566</v>
+        <v>0.93119495489874</v>
       </c>
       <c r="Z2">
-        <v>0.8642446278514566</v>
+        <v>0.93119495489874</v>
       </c>
       <c r="AA2">
-        <v>0.8864589597512811</v>
+        <v>0.93119495489874</v>
       </c>
       <c r="AB2">
-        <v>0.8921850325775926</v>
+        <v>0.93119495489874</v>
       </c>
       <c r="AC2">
-        <v>0.9435223199286447</v>
+        <v>0.9697841657536033</v>
       </c>
       <c r="AD2">
-        <v>0.9896274983493164</v>
+        <v>1</v>
       </c>
       <c r="AE2">
-        <v>0.9896274983493164</v>
+        <v>1</v>
       </c>
       <c r="AF2">
         <v>1</v>
@@ -2025,100 +2025,100 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1718283695370694</v>
+        <v>0.25045686664526</v>
       </c>
       <c r="F3">
-        <v>0.1814327323253611</v>
+        <v>0.25045686664526</v>
       </c>
       <c r="G3">
-        <v>0.4143700136156812</v>
+        <v>0.6083515269848265</v>
       </c>
       <c r="H3">
-        <v>0.4276295989431289</v>
+        <v>0.6083515269848265</v>
       </c>
       <c r="I3">
-        <v>0.4489865821129006</v>
+        <v>0.6083515269848265</v>
       </c>
       <c r="J3">
-        <v>0.4489865821129006</v>
+        <v>0.6083515269848265</v>
       </c>
       <c r="K3">
-        <v>0.4489865821129006</v>
+        <v>0.6083515269848265</v>
       </c>
       <c r="L3">
-        <v>0.4489865821129006</v>
+        <v>0.6083515269848265</v>
       </c>
       <c r="M3">
-        <v>0.4905645298575719</v>
+        <v>0.6298104039157023</v>
       </c>
       <c r="N3">
-        <v>0.4905645298575719</v>
+        <v>0.6298104039157023</v>
       </c>
       <c r="O3">
-        <v>0.5735678892758115</v>
+        <v>0.7241007992846362</v>
       </c>
       <c r="P3">
-        <v>0.6216574626215797</v>
+        <v>0.7570080013103866</v>
       </c>
       <c r="Q3">
-        <v>0.6216574626215797</v>
+        <v>0.7570080013103866</v>
       </c>
       <c r="R3">
-        <v>0.6267666245353779</v>
+        <v>0.7570080013103866</v>
       </c>
       <c r="S3">
-        <v>0.6267666245353779</v>
+        <v>0.7570080013103866</v>
       </c>
       <c r="T3">
-        <v>0.7075403831171795</v>
+        <v>0.8473784545986447</v>
       </c>
       <c r="U3">
-        <v>0.7776229095213284</v>
+        <v>0.9189522649082381</v>
       </c>
       <c r="V3">
-        <v>0.7837836544701501</v>
+        <v>0.9189522649082381</v>
       </c>
       <c r="W3">
-        <v>0.8313514749383984</v>
+        <v>0.9509421542801364</v>
       </c>
       <c r="X3">
-        <v>0.8314407598467836</v>
+        <v>0.9509421542801364</v>
       </c>
       <c r="Y3">
-        <v>0.8631894278254061</v>
+        <v>0.9551198180234413</v>
       </c>
       <c r="Z3">
-        <v>0.8631894278254061</v>
+        <v>0.9551198180234413</v>
       </c>
       <c r="AA3">
-        <v>0.893597984313621</v>
+        <v>0.9569413831601282</v>
       </c>
       <c r="AB3">
-        <v>0.8948936628159938</v>
+        <v>0.9569413831601282</v>
       </c>
       <c r="AC3">
-        <v>0.9487571997802987</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD3">
-        <v>0.9713105948606897</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE3">
-        <v>0.9837425835381381</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF3">
-        <v>0.9988571067755032</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG3">
-        <v>0.9992624534308091</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH3">
-        <v>0.9992624534308091</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI3">
-        <v>0.9992624534308091</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -2132,103 +2132,103 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0557310512538331</v>
+        <v>0.05508323658707735</v>
       </c>
       <c r="E4">
-        <v>0.08624549200532139</v>
+        <v>0.05620362780930246</v>
       </c>
       <c r="F4">
-        <v>0.2372074615914697</v>
+        <v>0.3150783818741846</v>
       </c>
       <c r="G4">
-        <v>0.3758482039213723</v>
+        <v>0.5475860521840092</v>
       </c>
       <c r="H4">
-        <v>0.3758482039213723</v>
+        <v>0.5475860521840092</v>
       </c>
       <c r="I4">
-        <v>0.3758482039213723</v>
+        <v>0.5475860521840092</v>
       </c>
       <c r="J4">
-        <v>0.3758482039213723</v>
+        <v>0.5475860521840092</v>
       </c>
       <c r="K4">
-        <v>0.3902666275522138</v>
+        <v>0.5475860521840092</v>
       </c>
       <c r="L4">
-        <v>0.4125214039802077</v>
+        <v>0.5475860521840092</v>
       </c>
       <c r="M4">
-        <v>0.4614352820025279</v>
+        <v>0.5880807275969615</v>
       </c>
       <c r="N4">
-        <v>0.4981885396719927</v>
+        <v>0.6025520135626766</v>
       </c>
       <c r="O4">
-        <v>0.5818237428554514</v>
+        <v>0.7173493594459146</v>
       </c>
       <c r="P4">
-        <v>0.5894658222848169</v>
+        <v>0.7173493594459146</v>
       </c>
       <c r="Q4">
-        <v>0.593332794630353</v>
+        <v>0.7173493594459146</v>
       </c>
       <c r="R4">
-        <v>0.6036368431628824</v>
+        <v>0.7173493594459146</v>
       </c>
       <c r="S4">
-        <v>0.6269270528605884</v>
+        <v>0.7173493594459146</v>
       </c>
       <c r="T4">
-        <v>0.7382910911567842</v>
+        <v>0.8914856415115939</v>
       </c>
       <c r="U4">
-        <v>0.7445657544927804</v>
+        <v>0.8914856415115939</v>
       </c>
       <c r="V4">
-        <v>0.7896379855031543</v>
+        <v>0.9237592991302347</v>
       </c>
       <c r="W4">
-        <v>0.7998162055250222</v>
+        <v>0.9237592991302347</v>
       </c>
       <c r="X4">
-        <v>0.8185180812515606</v>
+        <v>0.9237592991302347</v>
       </c>
       <c r="Y4">
-        <v>0.8286924409987552</v>
+        <v>0.9237592991302347</v>
       </c>
       <c r="Z4">
-        <v>0.846855690269291</v>
+        <v>0.9237592991302347</v>
       </c>
       <c r="AA4">
-        <v>0.8839381888179335</v>
+        <v>0.9389351514233397</v>
       </c>
       <c r="AB4">
-        <v>0.8965080613309141</v>
+        <v>0.9389351514233397</v>
       </c>
       <c r="AC4">
-        <v>0.9550342946900946</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD4">
-        <v>0.9550933338075771</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE4">
-        <v>0.9830250719975884</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF4">
-        <v>0.990753982382808</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG4">
-        <v>0.9932447000747294</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH4">
-        <v>0.9957663427495456</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -2242,97 +2242,97 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.136702420613279</v>
+        <v>0.2093222225839033</v>
       </c>
       <c r="E5">
-        <v>0.1991606308008654</v>
+        <v>0.2730345861762163</v>
       </c>
       <c r="F5">
-        <v>0.360366826088333</v>
+        <v>0.5304143091983706</v>
       </c>
       <c r="G5">
-        <v>0.360366826088333</v>
+        <v>0.5304143091983706</v>
       </c>
       <c r="H5">
-        <v>0.3742917337151956</v>
+        <v>0.5304143091983706</v>
       </c>
       <c r="I5">
-        <v>0.3742917337151956</v>
+        <v>0.5304143091983706</v>
       </c>
       <c r="J5">
-        <v>0.3888076787128548</v>
+        <v>0.5304143091983706</v>
       </c>
       <c r="K5">
-        <v>0.3888076787128548</v>
+        <v>0.5304143091983706</v>
       </c>
       <c r="L5">
-        <v>0.4296920684490951</v>
+        <v>0.5518154819810727</v>
       </c>
       <c r="M5">
-        <v>0.4418552348781722</v>
+        <v>0.5518154819810727</v>
       </c>
       <c r="N5">
-        <v>0.542589121727017</v>
+        <v>0.6905951922324439</v>
       </c>
       <c r="O5">
-        <v>0.5673043622549345</v>
+        <v>0.6905951922324439</v>
       </c>
       <c r="P5">
-        <v>0.5703126721661189</v>
+        <v>0.6905951922324439</v>
       </c>
       <c r="Q5">
-        <v>0.5795280877271456</v>
+        <v>0.6905951922324439</v>
       </c>
       <c r="R5">
-        <v>0.5881844140545509</v>
+        <v>0.6905951922324439</v>
       </c>
       <c r="S5">
-        <v>0.6952299755804559</v>
+        <v>0.8417535385344652</v>
       </c>
       <c r="T5">
-        <v>0.7404948989290496</v>
+        <v>0.8717459385380575</v>
       </c>
       <c r="U5">
-        <v>0.7582790848383679</v>
+        <v>0.8717459385380575</v>
       </c>
       <c r="V5">
-        <v>0.7788618901942873</v>
+        <v>0.8717459385380575</v>
       </c>
       <c r="W5">
-        <v>0.7983419606883302</v>
+        <v>0.8717459385380575</v>
       </c>
       <c r="X5">
-        <v>0.8417778389323931</v>
+        <v>0.8981511632153453</v>
       </c>
       <c r="Y5">
-        <v>0.8417950197810572</v>
+        <v>0.8981511632153453</v>
       </c>
       <c r="Z5">
-        <v>0.8708547635925571</v>
+        <v>0.8981511632153453</v>
       </c>
       <c r="AA5">
-        <v>0.8721772892554456</v>
+        <v>0.8981511632153453</v>
       </c>
       <c r="AB5">
-        <v>0.9540806960814652</v>
+        <v>1</v>
       </c>
       <c r="AC5">
-        <v>0.9666908609068144</v>
+        <v>1</v>
       </c>
       <c r="AD5">
-        <v>0.9802555602543048</v>
+        <v>1</v>
       </c>
       <c r="AE5">
-        <v>0.9890813141593967</v>
+        <v>1</v>
       </c>
       <c r="AF5">
-        <v>0.9926944458844654</v>
+        <v>1</v>
       </c>
       <c r="AG5">
-        <v>0.9936654613763476</v>
+        <v>1</v>
       </c>
       <c r="AH5">
-        <v>0.9965958760095969</v>
+        <v>1</v>
       </c>
       <c r="AI5">
         <v>1</v>
@@ -2352,103 +2352,103 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2412287780588498</v>
+        <v>0.3604577062441743</v>
       </c>
       <c r="E6">
-        <v>0.2498369973983891</v>
+        <v>0.3604577062441743</v>
       </c>
       <c r="F6">
-        <v>0.454782981027248</v>
+        <v>0.659157988755793</v>
       </c>
       <c r="G6">
-        <v>0.4614458117043364</v>
+        <v>0.659157988755793</v>
       </c>
       <c r="H6">
-        <v>0.4924950942693713</v>
+        <v>0.6618663990312686</v>
       </c>
       <c r="I6">
-        <v>0.4924950942693713</v>
+        <v>0.6618663990312686</v>
       </c>
       <c r="J6">
-        <v>0.4924950942693713</v>
+        <v>0.6618663990312686</v>
       </c>
       <c r="K6">
-        <v>0.4924950942693713</v>
+        <v>0.6618663990312686</v>
       </c>
       <c r="L6">
-        <v>0.5229901517191623</v>
+        <v>0.6636314554162002</v>
       </c>
       <c r="M6">
-        <v>0.5229901517191623</v>
+        <v>0.6636314554162002</v>
       </c>
       <c r="N6">
-        <v>0.5918800605512677</v>
+        <v>0.7307488955746955</v>
       </c>
       <c r="O6">
-        <v>0.6285264756192082</v>
+        <v>0.74298425902728</v>
       </c>
       <c r="P6">
-        <v>0.6285264756192082</v>
+        <v>0.74298425902728</v>
       </c>
       <c r="Q6">
-        <v>0.6297474708803847</v>
+        <v>0.74298425902728</v>
       </c>
       <c r="R6">
-        <v>0.6309904785704601</v>
+        <v>0.74298425902728</v>
       </c>
       <c r="S6">
-        <v>0.7390716338895169</v>
+        <v>0.8768096375881453</v>
       </c>
       <c r="T6">
-        <v>0.8093954448501739</v>
+        <v>0.9463677415029794</v>
       </c>
       <c r="U6">
-        <v>0.8134112638173608</v>
+        <v>0.9463677415029794</v>
       </c>
       <c r="V6">
-        <v>0.8319133388055293</v>
+        <v>0.9463677415029794</v>
       </c>
       <c r="W6">
-        <v>0.8443416586380083</v>
+        <v>0.9463677415029794</v>
       </c>
       <c r="X6">
-        <v>0.8759521533347151</v>
+        <v>0.9500313983619669</v>
       </c>
       <c r="Y6">
-        <v>0.8759521533347151</v>
+        <v>0.9500313983619669</v>
       </c>
       <c r="Z6">
-        <v>0.8876197634171752</v>
+        <v>0.9500313983619669</v>
       </c>
       <c r="AA6">
-        <v>0.8876197634171752</v>
+        <v>0.9500313983619669</v>
       </c>
       <c r="AB6">
-        <v>0.9464346440964621</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC6">
-        <v>0.9650338935109654</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD6">
-        <v>0.975478388105478</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE6">
-        <v>0.9891270435915113</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF6">
-        <v>0.9911625815679938</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG6">
-        <v>0.9922593140728593</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH6">
-        <v>0.9954201884013182</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -2462,103 +2462,103 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.105961924526619</v>
+        <v>0.1379847312789128</v>
       </c>
       <c r="E7">
-        <v>0.105961924526619</v>
+        <v>0.1379847312789128</v>
       </c>
       <c r="F7">
-        <v>0.3639838148442087</v>
+        <v>0.5474138746180599</v>
       </c>
       <c r="G7">
-        <v>0.4587272615789418</v>
+        <v>0.6653723413072823</v>
       </c>
       <c r="H7">
-        <v>0.4980339151411066</v>
+        <v>0.684369798430592</v>
       </c>
       <c r="I7">
-        <v>0.4980339151411066</v>
+        <v>0.684369798430592</v>
       </c>
       <c r="J7">
-        <v>0.5046807717322827</v>
+        <v>0.684369798430592</v>
       </c>
       <c r="K7">
-        <v>0.5046807717322827</v>
+        <v>0.684369798430592</v>
       </c>
       <c r="L7">
-        <v>0.5136591170473448</v>
+        <v>0.684369798430592</v>
       </c>
       <c r="M7">
-        <v>0.5136591170473448</v>
+        <v>0.684369798430592</v>
       </c>
       <c r="N7">
-        <v>0.6019064767623244</v>
+        <v>0.7907320075999813</v>
       </c>
       <c r="O7">
-        <v>0.6264146495846697</v>
+        <v>0.7907320075999813</v>
       </c>
       <c r="P7">
-        <v>0.6264146495846697</v>
+        <v>0.7907320075999813</v>
       </c>
       <c r="Q7">
-        <v>0.6400335483884207</v>
+        <v>0.7907320075999813</v>
       </c>
       <c r="R7">
-        <v>0.6512555482424227</v>
+        <v>0.7907320075999813</v>
       </c>
       <c r="S7">
-        <v>0.6809896324422129</v>
+        <v>0.7926413347282631</v>
       </c>
       <c r="T7">
-        <v>0.7625898852422707</v>
+        <v>0.8871376986106504</v>
       </c>
       <c r="U7">
-        <v>0.7625898852422707</v>
+        <v>0.8871376986106504</v>
       </c>
       <c r="V7">
-        <v>0.7880920098676055</v>
+        <v>0.8871376986106504</v>
       </c>
       <c r="W7">
-        <v>0.7991607302514502</v>
+        <v>0.8871376986106504</v>
       </c>
       <c r="X7">
-        <v>0.8069531452589758</v>
+        <v>0.8871376986106504</v>
       </c>
       <c r="Y7">
-        <v>0.8109971975956892</v>
+        <v>0.8871376986106504</v>
       </c>
       <c r="Z7">
-        <v>0.832538385431588</v>
+        <v>0.8871376986106504</v>
       </c>
       <c r="AA7">
-        <v>0.8752433381050081</v>
+        <v>0.9122015079093088</v>
       </c>
       <c r="AB7">
-        <v>0.8931375701557912</v>
+        <v>0.9122015079093088</v>
       </c>
       <c r="AC7">
-        <v>0.970985753986046</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>0.970985753986046</v>
+        <v>1</v>
       </c>
       <c r="AE7">
-        <v>0.9931943140438526</v>
+        <v>1</v>
       </c>
       <c r="AF7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -2572,103 +2572,103 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.04355170761397371</v>
+        <v>0.02608224830959543</v>
       </c>
       <c r="E8">
-        <v>0.06960954176688944</v>
+        <v>0.02608224830959543</v>
       </c>
       <c r="F8">
-        <v>0.2534013709323871</v>
+        <v>0.2898413487240853</v>
       </c>
       <c r="G8">
-        <v>0.3864014961345438</v>
+        <v>0.4675194319696378</v>
       </c>
       <c r="H8">
-        <v>0.3881743997538514</v>
+        <v>0.4675194319696378</v>
       </c>
       <c r="I8">
-        <v>0.4001011195408998</v>
+        <v>0.4675194319696378</v>
       </c>
       <c r="J8">
-        <v>0.4001011195408998</v>
+        <v>0.4675194319696378</v>
       </c>
       <c r="K8">
-        <v>0.4001011195408998</v>
+        <v>0.4675194319696378</v>
       </c>
       <c r="L8">
-        <v>0.4001011195408998</v>
+        <v>0.4675194319696378</v>
       </c>
       <c r="M8">
-        <v>0.402648705680845</v>
+        <v>0.4675194319696378</v>
       </c>
       <c r="N8">
-        <v>0.488984564155906</v>
+        <v>0.5661116166950265</v>
       </c>
       <c r="O8">
-        <v>0.5657729289299355</v>
+        <v>0.6485228524648143</v>
       </c>
       <c r="P8">
-        <v>0.5657729289299355</v>
+        <v>0.6485228524648143</v>
       </c>
       <c r="Q8">
-        <v>0.5714554948358396</v>
+        <v>0.6485228524648143</v>
       </c>
       <c r="R8">
-        <v>0.6030022279317189</v>
+        <v>0.6542592502325457</v>
       </c>
       <c r="S8">
-        <v>0.6128860155168069</v>
+        <v>0.6542592502325457</v>
       </c>
       <c r="T8">
-        <v>0.7289772144874003</v>
+        <v>0.803280339211908</v>
       </c>
       <c r="U8">
-        <v>0.7589511342414785</v>
+        <v>0.8063511565459365</v>
       </c>
       <c r="V8">
-        <v>0.7630903741374606</v>
+        <v>0.8063511565459365</v>
       </c>
       <c r="W8">
-        <v>0.7835462143846135</v>
+        <v>0.8063511565459365</v>
       </c>
       <c r="X8">
-        <v>0.7856926530633966</v>
+        <v>0.8063511565459365</v>
       </c>
       <c r="Y8">
-        <v>0.8109232638832806</v>
+        <v>0.8063511565459365</v>
       </c>
       <c r="Z8">
-        <v>0.8109232638832806</v>
+        <v>0.8063511565459365</v>
       </c>
       <c r="AA8">
-        <v>0.8605190522490139</v>
+        <v>0.8426768221533286</v>
       </c>
       <c r="AB8">
-        <v>0.8605190522490139</v>
+        <v>0.8426768221533286</v>
       </c>
       <c r="AC8">
-        <v>0.981508860156792</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AD8">
-        <v>0.9850938915548471</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AE8">
-        <v>0.9941218742264253</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AF8">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG8">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH8">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI8">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ8">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -2682,103 +2682,103 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2061285287300041</v>
+        <v>0.3077524019931844</v>
       </c>
       <c r="E9">
-        <v>0.2080901292265996</v>
+        <v>0.3077524019931844</v>
       </c>
       <c r="F9">
-        <v>0.3632168325915948</v>
+        <v>0.5264118564269499</v>
       </c>
       <c r="G9">
-        <v>0.3799869174226322</v>
+        <v>0.5264118564269499</v>
       </c>
       <c r="H9">
-        <v>0.4299325383264384</v>
+        <v>0.5613348936463864</v>
       </c>
       <c r="I9">
-        <v>0.4299325383264384</v>
+        <v>0.5613348936463864</v>
       </c>
       <c r="J9">
-        <v>0.4299325383264384</v>
+        <v>0.5613348936463864</v>
       </c>
       <c r="K9">
-        <v>0.4299325383264384</v>
+        <v>0.5613348936463864</v>
       </c>
       <c r="L9">
-        <v>0.4458575503397825</v>
+        <v>0.5613348936463864</v>
       </c>
       <c r="M9">
-        <v>0.4484280313467615</v>
+        <v>0.5613348936463864</v>
       </c>
       <c r="N9">
-        <v>0.5404776553405609</v>
+        <v>0.6698076462434996</v>
       </c>
       <c r="O9">
-        <v>0.5473564801738737</v>
+        <v>0.6698076462434996</v>
       </c>
       <c r="P9">
-        <v>0.5473564801738737</v>
+        <v>0.6698076462434996</v>
       </c>
       <c r="Q9">
-        <v>0.5625047356932538</v>
+        <v>0.6698076462434996</v>
       </c>
       <c r="R9">
-        <v>0.5628416868934126</v>
+        <v>0.6698076462434996</v>
       </c>
       <c r="S9">
-        <v>0.6413821390498429</v>
+        <v>0.7546817937031652</v>
       </c>
       <c r="T9">
-        <v>0.7435457718634402</v>
+        <v>0.8808222836988691</v>
       </c>
       <c r="U9">
-        <v>0.7460998106158776</v>
+        <v>0.8808222836988691</v>
       </c>
       <c r="V9">
-        <v>0.7579636773322506</v>
+        <v>0.8808222836988691</v>
       </c>
       <c r="W9">
-        <v>0.7579636773322506</v>
+        <v>0.8808222836988691</v>
       </c>
       <c r="X9">
-        <v>0.7985527533901698</v>
+        <v>0.899400765535708</v>
       </c>
       <c r="Y9">
-        <v>0.8038875960350264</v>
+        <v>0.899400765535708</v>
       </c>
       <c r="Z9">
-        <v>0.8252041061877398</v>
+        <v>0.899400765535708</v>
       </c>
       <c r="AA9">
-        <v>0.8331475231230294</v>
+        <v>0.899400765535708</v>
       </c>
       <c r="AB9">
-        <v>0.8946301458047065</v>
+        <v>0.9544773068117653</v>
       </c>
       <c r="AC9">
-        <v>0.9506436072891522</v>
+        <v>1</v>
       </c>
       <c r="AD9">
-        <v>0.9513752516578822</v>
+        <v>1</v>
       </c>
       <c r="AE9">
-        <v>0.9741934327805145</v>
+        <v>1</v>
       </c>
       <c r="AF9">
-        <v>0.9848987389868264</v>
+        <v>1</v>
       </c>
       <c r="AG9">
-        <v>0.9866653053153488</v>
+        <v>1</v>
       </c>
       <c r="AH9">
-        <v>0.9868596432097264</v>
+        <v>1</v>
       </c>
       <c r="AI9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -2792,103 +2792,103 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01688223507980403</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1399033506314864</v>
+        <v>0.1674073474069944</v>
       </c>
       <c r="F10">
-        <v>0.2005807259900056</v>
+        <v>0.2250745160235854</v>
       </c>
       <c r="G10">
-        <v>0.3914951093260524</v>
+        <v>0.5119905634578192</v>
       </c>
       <c r="H10">
-        <v>0.3914951093260524</v>
+        <v>0.5119905634578192</v>
       </c>
       <c r="I10">
-        <v>0.4233019156450163</v>
+        <v>0.5188384934729875</v>
       </c>
       <c r="J10">
-        <v>0.4233019156450163</v>
+        <v>0.5188384934729875</v>
       </c>
       <c r="K10">
-        <v>0.4233019156450163</v>
+        <v>0.5188384934729875</v>
       </c>
       <c r="L10">
-        <v>0.4233019156450163</v>
+        <v>0.5188384934729875</v>
       </c>
       <c r="M10">
-        <v>0.4355529965657482</v>
+        <v>0.5188384934729875</v>
       </c>
       <c r="N10">
-        <v>0.4607829823861662</v>
+        <v>0.5188384934729875</v>
       </c>
       <c r="O10">
-        <v>0.5352026588882171</v>
+        <v>0.6006954617360249</v>
       </c>
       <c r="P10">
-        <v>0.5352026588882171</v>
+        <v>0.6006954617360249</v>
       </c>
       <c r="Q10">
-        <v>0.5352026588882171</v>
+        <v>0.6006954617360249</v>
       </c>
       <c r="R10">
-        <v>0.5537740169038896</v>
+        <v>0.6006954617360249</v>
       </c>
       <c r="S10">
-        <v>0.5537740169038896</v>
+        <v>0.6006954617360249</v>
       </c>
       <c r="T10">
-        <v>0.6612776107524158</v>
+        <v>0.7407881886083491</v>
       </c>
       <c r="U10">
-        <v>0.7413258907840293</v>
+        <v>0.8325528710341991</v>
       </c>
       <c r="V10">
-        <v>0.7413258907840293</v>
+        <v>0.8325528710341991</v>
       </c>
       <c r="W10">
-        <v>0.763721400088492</v>
+        <v>0.8325528710341991</v>
       </c>
       <c r="X10">
-        <v>0.763721400088492</v>
+        <v>0.8325528710341991</v>
       </c>
       <c r="Y10">
-        <v>0.8003909497832187</v>
+        <v>0.8479604146659815</v>
       </c>
       <c r="Z10">
-        <v>0.8003909497832187</v>
+        <v>0.8479604146659815</v>
       </c>
       <c r="AA10">
-        <v>0.8502836483824008</v>
+        <v>0.886643923462045</v>
       </c>
       <c r="AB10">
-        <v>0.8502836483824008</v>
+        <v>0.886643923462045</v>
       </c>
       <c r="AC10">
-        <v>0.9425980672135893</v>
+        <v>1</v>
       </c>
       <c r="AD10">
-        <v>0.9663652177866447</v>
+        <v>1</v>
       </c>
       <c r="AE10">
-        <v>0.9714218172010601</v>
+        <v>1</v>
       </c>
       <c r="AF10">
-        <v>0.9929788643596655</v>
+        <v>1</v>
       </c>
       <c r="AG10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AH10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AI10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -2902,103 +2902,103 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03008273830937664</v>
+        <v>0.01110297198368486</v>
       </c>
       <c r="E11">
-        <v>0.07623785353070638</v>
+        <v>0.04265189487425694</v>
       </c>
       <c r="F11">
-        <v>0.2094074808730018</v>
+        <v>0.1848934958147625</v>
       </c>
       <c r="G11">
-        <v>0.3551146777974161</v>
+        <v>0.3430843576251424</v>
       </c>
       <c r="H11">
-        <v>0.3551146777974161</v>
+        <v>0.3430843576251424</v>
       </c>
       <c r="I11">
-        <v>0.3551146777974161</v>
+        <v>0.3430843576251424</v>
       </c>
       <c r="J11">
-        <v>0.4168746826131867</v>
+        <v>0.3944845326549081</v>
       </c>
       <c r="K11">
-        <v>0.4192370449242398</v>
+        <v>0.3944845326549081</v>
       </c>
       <c r="L11">
-        <v>0.4192370449242398</v>
+        <v>0.3944845326549081</v>
       </c>
       <c r="M11">
-        <v>0.4192370449242398</v>
+        <v>0.3944845326549081</v>
       </c>
       <c r="N11">
-        <v>0.4192370449242398</v>
+        <v>0.3944845326549081</v>
       </c>
       <c r="O11">
-        <v>0.6114680081737602</v>
+        <v>0.6118590887936101</v>
       </c>
       <c r="P11">
-        <v>0.6114680081737602</v>
+        <v>0.6118590887936101</v>
       </c>
       <c r="Q11">
-        <v>0.6114680081737602</v>
+        <v>0.6118590887936101</v>
       </c>
       <c r="R11">
-        <v>0.6524461179792114</v>
+        <v>0.6368222528286253</v>
       </c>
       <c r="S11">
-        <v>0.6524461179792114</v>
+        <v>0.6368222528286253</v>
       </c>
       <c r="T11">
-        <v>0.8779583450327425</v>
+        <v>0.896534484942926</v>
       </c>
       <c r="U11">
-        <v>0.882325079956049</v>
+        <v>0.896534484942926</v>
       </c>
       <c r="V11">
-        <v>0.8932780039720325</v>
+        <v>0.896534484942926</v>
       </c>
       <c r="W11">
-        <v>0.8932780039720325</v>
+        <v>0.896534484942926</v>
       </c>
       <c r="X11">
-        <v>0.8973119027331211</v>
+        <v>0.896534484942926</v>
       </c>
       <c r="Y11">
-        <v>0.8973119027331211</v>
+        <v>0.896534484942926</v>
       </c>
       <c r="Z11">
-        <v>0.8973119027331211</v>
+        <v>0.896534484942926</v>
       </c>
       <c r="AA11">
-        <v>0.8973119027331211</v>
+        <v>0.896534484942926</v>
       </c>
       <c r="AB11">
-        <v>0.8973119027331211</v>
+        <v>0.896534484942926</v>
       </c>
       <c r="AC11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ11">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3060,34 +3060,34 @@
         <v>36</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>0.5</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.5182378746247814</v>
       </c>
       <c r="F2">
-        <v>0.5551081099409741</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <v>12</v>
+        <v>700</v>
       </c>
       <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>13</v>
-      </c>
-      <c r="I2">
-        <v>700</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -3101,34 +3101,34 @@
         <v>37</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>0.5</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.6083515269848265</v>
       </c>
       <c r="F3">
-        <v>0.5735678892758115</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>12</v>
+        <v>700</v>
       </c>
       <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>13</v>
-      </c>
-      <c r="I3">
-        <v>700</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -3142,34 +3142,34 @@
         <v>38</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.5</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>14</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.5475860521840092</v>
       </c>
       <c r="F4">
-        <v>0.5818237428554514</v>
+        <v>6</v>
       </c>
       <c r="G4">
+        <v>700</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>13</v>
-      </c>
-      <c r="H4">
-        <v>13</v>
-      </c>
-      <c r="I4">
-        <v>700</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -3183,34 +3183,34 @@
         <v>39</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0.5</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+      <c r="E5">
+        <v>0.5304143091983706</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>700</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>13</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.542589121727017</v>
-      </c>
-      <c r="G5">
-        <v>12</v>
-      </c>
-      <c r="H5">
-        <v>13</v>
-      </c>
-      <c r="I5">
-        <v>700</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -3224,34 +3224,34 @@
         <v>40</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0.5</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>11</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.659157988755793</v>
       </c>
       <c r="F6">
-        <v>0.5229901517191623</v>
+        <v>5</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>700</v>
       </c>
       <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>13</v>
-      </c>
-      <c r="I6">
-        <v>700</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -3265,34 +3265,34 @@
         <v>41</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.5</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>9</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.5474138746180599</v>
       </c>
       <c r="F7">
-        <v>0.5046807717322827</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>8</v>
+        <v>700</v>
       </c>
       <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>13</v>
-      </c>
-      <c r="I7">
-        <v>700</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -3306,34 +3306,34 @@
         <v>42</v>
       </c>
       <c r="B8">
+        <v>0.02608224830959543</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
         <v>0.5</v>
       </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>14</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.5661116166950265</v>
       </c>
       <c r="F8">
-        <v>0.5657729289299355</v>
+        <v>13</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>700</v>
       </c>
       <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>13</v>
-      </c>
-      <c r="I8">
-        <v>700</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -3347,34 +3347,34 @@
         <v>43</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.5</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
+      <c r="E9">
+        <v>0.5264118564269499</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>700</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>13</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.5404776553405609</v>
-      </c>
-      <c r="G9">
-        <v>12</v>
-      </c>
-      <c r="H9">
-        <v>13</v>
-      </c>
-      <c r="I9">
-        <v>700</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -3388,34 +3388,34 @@
         <v>44</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>0.5</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.5119905634578192</v>
       </c>
       <c r="F10">
-        <v>0.5352026588882171</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>12</v>
+        <v>700</v>
       </c>
       <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>13</v>
-      </c>
-      <c r="I10">
-        <v>700</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -3429,34 +3429,34 @@
         <v>45</v>
       </c>
       <c r="B11">
+        <v>0.01110297198368486</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
         <v>0.5</v>
       </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
+      <c r="E11">
+        <v>0.6118590887936101</v>
+      </c>
+      <c r="F11">
         <v>14</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.6114680081737602</v>
-      </c>
       <c r="G11">
-        <v>12</v>
+        <v>700</v>
       </c>
       <c r="H11">
+        <v>11</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>13</v>
-      </c>
-      <c r="I11">
-        <v>700</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
@@ -3524,34 +3524,34 @@
         <v>36</v>
       </c>
       <c r="B2">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>0.7</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.7390069188719283</v>
       </c>
       <c r="F2">
-        <v>0.7595241440384689</v>
+        <v>15</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>700</v>
       </c>
       <c r="H2">
         <v>13</v>
       </c>
-      <c r="I2">
-        <v>700</v>
+      <c r="I2" t="s">
+        <v>58</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
         <v>59</v>
+      </c>
+      <c r="K2">
+        <v>13</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -3565,34 +3565,34 @@
         <v>37</v>
       </c>
       <c r="B3">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>0.7</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.7241007992846362</v>
       </c>
       <c r="F3">
-        <v>0.7075403831171795</v>
+        <v>14</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>700</v>
       </c>
       <c r="H3">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>13</v>
-      </c>
-      <c r="I3">
-        <v>700</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -3606,34 +3606,34 @@
         <v>38</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.7</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>19</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.7173493594459146</v>
       </c>
       <c r="F4">
-        <v>0.7382910911567842</v>
+        <v>14</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>700</v>
       </c>
       <c r="H4">
         <v>13</v>
       </c>
-      <c r="I4">
-        <v>700</v>
+      <c r="I4" t="s">
+        <v>58</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
         <v>59</v>
+      </c>
+      <c r="K4">
+        <v>13</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -3647,34 +3647,34 @@
         <v>39</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0.7</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>19</v>
-      </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.8417535385344652</v>
       </c>
       <c r="F5">
-        <v>0.7404948989290496</v>
+        <v>18</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>700</v>
       </c>
       <c r="H5">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>13</v>
-      </c>
-      <c r="I5">
-        <v>700</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -3688,34 +3688,34 @@
         <v>40</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0.7</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>18</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.7307488955746955</v>
       </c>
       <c r="F6">
-        <v>0.7390716338895169</v>
+        <v>13</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>700</v>
       </c>
       <c r="H6">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>13</v>
-      </c>
-      <c r="I6">
-        <v>700</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -3729,34 +3729,34 @@
         <v>41</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.7</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>19</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.7907320075999813</v>
       </c>
       <c r="F7">
-        <v>0.7625898852422707</v>
+        <v>13</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>700</v>
       </c>
       <c r="H7">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>13</v>
-      </c>
-      <c r="I7">
-        <v>700</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -3770,34 +3770,34 @@
         <v>42</v>
       </c>
       <c r="B8">
+        <v>0.02608224830959543</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
         <v>0.7</v>
       </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
+      <c r="E8">
+        <v>0.803280339211908</v>
+      </c>
+      <c r="F8">
         <v>19</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.7289772144874003</v>
-      </c>
       <c r="G8">
-        <v>17</v>
+        <v>700</v>
       </c>
       <c r="H8">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>13</v>
-      </c>
-      <c r="I8">
-        <v>700</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -3811,34 +3811,34 @@
         <v>43</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.7</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>19</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.7546817937031652</v>
       </c>
       <c r="F9">
-        <v>0.7435457718634402</v>
+        <v>18</v>
       </c>
       <c r="G9">
-        <v>18</v>
+        <v>700</v>
       </c>
       <c r="H9">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>13</v>
-      </c>
-      <c r="I9">
-        <v>700</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -3852,34 +3852,34 @@
         <v>44</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>0.7</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.7407881886083491</v>
       </c>
       <c r="F10">
-        <v>0.7413258907840293</v>
+        <v>19</v>
       </c>
       <c r="G10">
-        <v>18</v>
+        <v>700</v>
       </c>
       <c r="H10">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>13</v>
-      </c>
-      <c r="I10">
-        <v>700</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -3893,34 +3893,34 @@
         <v>45</v>
       </c>
       <c r="B11">
+        <v>0.01110297198368486</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
         <v>0.7</v>
       </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
+      <c r="E11">
+        <v>0.896534484942926</v>
+      </c>
+      <c r="F11">
         <v>19</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.8779583450327425</v>
-      </c>
       <c r="G11">
-        <v>17</v>
+        <v>700</v>
       </c>
       <c r="H11">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>13</v>
-      </c>
-      <c r="I11">
-        <v>700</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
@@ -3988,34 +3988,34 @@
         <v>36</v>
       </c>
       <c r="B2">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>0.8</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.8507422956454008</v>
       </c>
       <c r="F2">
-        <v>0.8336168321565112</v>
+        <v>20</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>700</v>
       </c>
       <c r="H2">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>13</v>
-      </c>
-      <c r="I2">
-        <v>700</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -4029,34 +4029,34 @@
         <v>37</v>
       </c>
       <c r="B3">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>0.8</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.8473784545986447</v>
       </c>
       <c r="F3">
-        <v>0.8313514749383984</v>
+        <v>19</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>700</v>
       </c>
       <c r="H3">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>13</v>
-      </c>
-      <c r="I3">
-        <v>700</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -4070,34 +4070,34 @@
         <v>38</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.8</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>23</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.8914856415115939</v>
       </c>
       <c r="F4">
-        <v>0.8185180812515606</v>
+        <v>19</v>
       </c>
       <c r="G4">
-        <v>22</v>
+        <v>700</v>
       </c>
       <c r="H4">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>13</v>
-      </c>
-      <c r="I4">
-        <v>700</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -4111,34 +4111,34 @@
         <v>39</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0.8</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.8417535385344652</v>
       </c>
       <c r="F5">
-        <v>0.8417778389323931</v>
+        <v>18</v>
       </c>
       <c r="G5">
-        <v>22</v>
+        <v>700</v>
       </c>
       <c r="H5">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>13</v>
-      </c>
-      <c r="I5">
-        <v>700</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -4152,34 +4152,34 @@
         <v>40</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0.8</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>19</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.8768096375881453</v>
       </c>
       <c r="F6">
-        <v>0.8093954448501739</v>
+        <v>18</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>700</v>
       </c>
       <c r="H6">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>13</v>
-      </c>
-      <c r="I6">
-        <v>700</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -4193,34 +4193,34 @@
         <v>41</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.8</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.8871376986106504</v>
       </c>
       <c r="F7">
-        <v>0.8069531452589758</v>
+        <v>19</v>
       </c>
       <c r="G7">
-        <v>22</v>
+        <v>700</v>
       </c>
       <c r="H7">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>13</v>
-      </c>
-      <c r="I7">
-        <v>700</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -4234,34 +4234,34 @@
         <v>42</v>
       </c>
       <c r="B8">
+        <v>0.02608224830959543</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
         <v>0.8</v>
       </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>24</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.803280339211908</v>
       </c>
       <c r="F8">
-        <v>0.8109232638832806</v>
+        <v>19</v>
       </c>
       <c r="G8">
-        <v>22</v>
+        <v>700</v>
       </c>
       <c r="H8">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>13</v>
-      </c>
-      <c r="I8">
-        <v>700</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -4275,34 +4275,34 @@
         <v>43</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.8</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>24</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.8808222836988691</v>
       </c>
       <c r="F9">
-        <v>0.8038875960350264</v>
+        <v>19</v>
       </c>
       <c r="G9">
-        <v>23</v>
+        <v>700</v>
       </c>
       <c r="H9">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>13</v>
-      </c>
-      <c r="I9">
-        <v>700</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -4316,34 +4316,34 @@
         <v>44</v>
       </c>
       <c r="B10">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
-        <v>24</v>
+        <v>0.8</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.8325528710341991</v>
       </c>
       <c r="F10">
-        <v>0.8003909497832187</v>
+        <v>20</v>
       </c>
       <c r="G10">
-        <v>22</v>
+        <v>700</v>
       </c>
       <c r="H10">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>13</v>
-      </c>
-      <c r="I10">
-        <v>700</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -4357,34 +4357,34 @@
         <v>45</v>
       </c>
       <c r="B11">
+        <v>0.01110297198368486</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
         <v>0.8</v>
       </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
+      <c r="E11">
+        <v>0.896534484942926</v>
+      </c>
+      <c r="F11">
         <v>19</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.8779583450327425</v>
-      </c>
       <c r="G11">
-        <v>17</v>
+        <v>700</v>
       </c>
       <c r="H11">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>13</v>
-      </c>
-      <c r="I11">
-        <v>700</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
@@ -4452,34 +4452,34 @@
         <v>36</v>
       </c>
       <c r="B2">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
-        <v>28</v>
+        <v>0.9</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.92574885618353</v>
       </c>
       <c r="F2">
-        <v>0.9435223199286447</v>
+        <v>22</v>
       </c>
       <c r="G2">
-        <v>26</v>
+        <v>700</v>
       </c>
       <c r="H2">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>13</v>
-      </c>
-      <c r="I2">
-        <v>700</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -4493,34 +4493,34 @@
         <v>37</v>
       </c>
       <c r="B3">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>0.9</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.9189522649082381</v>
       </c>
       <c r="F3">
-        <v>0.9487571997802987</v>
+        <v>20</v>
       </c>
       <c r="G3">
-        <v>26</v>
+        <v>700</v>
       </c>
       <c r="H3">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>13</v>
-      </c>
-      <c r="I3">
-        <v>700</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -4534,34 +4534,34 @@
         <v>38</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.9</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>28</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.9237592991302347</v>
       </c>
       <c r="F4">
-        <v>0.9550342946900946</v>
+        <v>21</v>
       </c>
       <c r="G4">
-        <v>27</v>
+        <v>700</v>
       </c>
       <c r="H4">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>13</v>
-      </c>
-      <c r="I4">
-        <v>700</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -4575,34 +4575,34 @@
         <v>39</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0.9</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>27</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.9540806960814652</v>
-      </c>
       <c r="G5">
+        <v>700</v>
+      </c>
+      <c r="H5">
         <v>26</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>13</v>
-      </c>
-      <c r="I5">
-        <v>700</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -4616,34 +4616,34 @@
         <v>40</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0.9</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.9463677415029794</v>
       </c>
       <c r="F6">
-        <v>0.9464346440964621</v>
+        <v>19</v>
       </c>
       <c r="G6">
-        <v>26</v>
+        <v>700</v>
       </c>
       <c r="H6">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>13</v>
-      </c>
-      <c r="I6">
-        <v>700</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -4657,34 +4657,34 @@
         <v>41</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.9</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>28</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.9122015079093088</v>
       </c>
       <c r="F7">
-        <v>0.970985753986046</v>
+        <v>26</v>
       </c>
       <c r="G7">
-        <v>27</v>
+        <v>700</v>
       </c>
       <c r="H7">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>13</v>
-      </c>
-      <c r="I7">
-        <v>700</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -4698,34 +4698,34 @@
         <v>42</v>
       </c>
       <c r="B8">
+        <v>0.02608224830959543</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
         <v>0.9</v>
       </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
+      <c r="E8">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="F8">
         <v>28</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.981508860156792</v>
-      </c>
       <c r="G8">
-        <v>26</v>
+        <v>700</v>
       </c>
       <c r="H8">
+        <v>25</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>13</v>
-      </c>
-      <c r="I8">
-        <v>700</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -4739,34 +4739,34 @@
         <v>43</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.9</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>28</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.9544773068117653</v>
       </c>
       <c r="F9">
-        <v>0.9506436072891522</v>
+        <v>27</v>
       </c>
       <c r="G9">
-        <v>27</v>
+        <v>700</v>
       </c>
       <c r="H9">
+        <v>26</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>13</v>
-      </c>
-      <c r="I9">
-        <v>700</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -4780,34 +4780,34 @@
         <v>44</v>
       </c>
       <c r="B10">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
+        <v>0.9</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
         <v>28</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.9425980672135893</v>
-      </c>
       <c r="G10">
+        <v>700</v>
+      </c>
+      <c r="H10">
         <v>26</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>13</v>
-      </c>
-      <c r="I10">
-        <v>700</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -4821,34 +4821,34 @@
         <v>45</v>
       </c>
       <c r="B11">
+        <v>0.01110297198368486</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
         <v>0.9</v>
       </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
+      <c r="E11">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="F11">
         <v>28</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.9999999999999998</v>
-      </c>
       <c r="G11">
-        <v>26</v>
+        <v>700</v>
       </c>
       <c r="H11">
+        <v>25</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>13</v>
-      </c>
-      <c r="I11">
-        <v>700</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
